--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_88.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_88.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t xml:space="preserve">Holiday Inn Covington </t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>Covington</t>
   </si>
   <si>
@@ -64,78 +142,6 @@
   </si>
   <si>
     <t>89</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -506,34 +512,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>63400</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70433</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P1" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -558,76 +583,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="V1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E2" t="n">
+        <v>70433</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="X1" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="H2" t="s">
         <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_88.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_88.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="710">
   <si>
     <t>STR</t>
   </si>
@@ -93,6 +93,2019 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>10/14/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r620770714-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>40095</t>
+  </si>
+  <si>
+    <t>6956319</t>
+  </si>
+  <si>
+    <t>620770714</t>
+  </si>
+  <si>
+    <t>09/30/2018</t>
+  </si>
+  <si>
+    <t>Staying overnight</t>
+  </si>
+  <si>
+    <t>This hotel is relatively new.  The value for the price is excellent.  We had the free breakfast rate ($10 off per person), which was excellent for the table service restaurant.  The TV was nice, shower excellent, and pool inviting.  Our reception from Adam was exceedingly nice.  We will definitely come back.</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r610999305-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>610999305</t>
+  </si>
+  <si>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Hotel </t>
+  </si>
+  <si>
+    <t>This Hotel was great.  The room was spacious, and clean.  The bed was comfortable with 4 king pillows and the A/C was cold.  The check-in and check-out process was quick and easy.  The TV was big and got lots of channels.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r609399799-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>609399799</t>
+  </si>
+  <si>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>Nice staff clean rooms</t>
+  </si>
+  <si>
+    <t>Service was good; check in staff was courteous. Room was nice. Little noise issue. Parking was ample and the location also good within northshore. Only downside is the distance from New Orleans was significant.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Holiday Inn C, General Manager at Holiday Inn Covington Southeast, responded to this reviewResponded August 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2018</t>
+  </si>
+  <si>
+    <t>Service was good; check in staff was courteous. Room was nice. Little noise issue. Parking was ample and the location also good within northshore. Only downside is the distance from New Orleans was significant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r592137097-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>592137097</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>Comfy beds, subpar breakfast</t>
+  </si>
+  <si>
+    <t>The rooms are clean and the beds comfortable. The staff was over-the-top friendly and courteous. My only complaint is breakfast. A fresh, made to order breakfast was advertised when in actuality a subpar hotel breakfast buffet was provided.  It would have been much better if pancakes or waffles were included. Milk, juice, and coffee were extra. Overall, a good place to stay.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r587049092-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>587049092</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>Awesome Hotel</t>
+  </si>
+  <si>
+    <t>Everything about the hotel was Wonderful! The Staff were really Friendly and the restaurant was great! Room was really clean and well maintained. This will definitely be my go to hotel when I am in the Area!MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn C, Manager at Holiday Inn Covington Southeast, responded to this reviewResponded June 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2018</t>
+  </si>
+  <si>
+    <t>Everything about the hotel was Wonderful! The Staff were really Friendly and the restaurant was great! Room was really clean and well maintained. This will definitely be my go to hotel when I am in the Area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r580102603-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>580102603</t>
+  </si>
+  <si>
+    <t>05/14/2018</t>
+  </si>
+  <si>
+    <t>Very Friendly People, Frustrating Accomodations</t>
+  </si>
+  <si>
+    <t>We stayed in a king suite on the 5th floor. Despite what the website says, they do not offer roll away beds. The bathroom fixtures - tp holder, towel rack - fall off the wall when used. The shower drain does not stay up on its own so you have to prop it up with something. The shower head is like being power washed, which some may like. The AC units seemed to have a mind of their own. If you set the temp to 70° you will either get a room that is 66° or 75° depending on how it behaves. We ended up just unplugging it periodically.The good news is that the staff is very friendly and as accommodating as they can be. They welcome you back each time you return and are happy to help however they can. The breakfast buffet was nice - biscuits, eggs, bacon, sausage, potatoes, baked goods, cereal, etc.Despite the room having facilities issues, the stay was enjoyable.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Holiday Inn C, General Manager at Holiday Inn Covington Southeast, responded to this reviewResponded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2018</t>
+  </si>
+  <si>
+    <t>We stayed in a king suite on the 5th floor. Despite what the website says, they do not offer roll away beds. The bathroom fixtures - tp holder, towel rack - fall off the wall when used. The shower drain does not stay up on its own so you have to prop it up with something. The shower head is like being power washed, which some may like. The AC units seemed to have a mind of their own. If you set the temp to 70° you will either get a room that is 66° or 75° depending on how it behaves. We ended up just unplugging it periodically.The good news is that the staff is very friendly and as accommodating as they can be. They welcome you back each time you return and are happy to help however they can. The breakfast buffet was nice - biscuits, eggs, bacon, sausage, potatoes, baked goods, cereal, etc.Despite the room having facilities issues, the stay was enjoyable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r578273131-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>578273131</t>
+  </si>
+  <si>
+    <t>05/06/2018</t>
+  </si>
+  <si>
+    <t>It’s okay</t>
+  </si>
+  <si>
+    <t>First off the hotel is nicely decorated. Checked in was no problem and very easy. First hotel I’ve been too where breakfast was an additional charge... anyways... rooms where nice, small... bathroom is very tiny! You can’t open the door without it almost hitting the toilet. The beds weren’t comfy at all, didn’t sleep but couldn’t determine if it was the bed or the noisy people in the hall way yelling/cursing or a combination of terrible mattress and annoying people. It wouldn’t be my first pick for a hotel next trip but if I’m in the area I MIGHT would stay... mightMoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Covington Southeast, responded to this reviewResponded May 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2018</t>
+  </si>
+  <si>
+    <t>First off the hotel is nicely decorated. Checked in was no problem and very easy. First hotel I’ve been too where breakfast was an additional charge... anyways... rooms where nice, small... bathroom is very tiny! You can’t open the door without it almost hitting the toilet. The beds weren’t comfy at all, didn’t sleep but couldn’t determine if it was the bed or the noisy people in the hall way yelling/cursing or a combination of terrible mattress and annoying people. It wouldn’t be my first pick for a hotel next trip but if I’m in the area I MIGHT would stay... mightMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r573719558-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>573719558</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Great place with few flaws</t>
+  </si>
+  <si>
+    <t>This hotel is first rate, with a superb staff. Our first concern was the lack of microwave ovens in the room.  When I called the Desk Staff to inquire, I was told I could bring my cup and tea bag down to the desk and use their microwave!After that, I asked 3 more employees and received 4 different excuses.  No, Holiday Inn, microwave ovens do NOT "attract mice".  They do not "cause fires".  And, no, I could not make tea in the K-cup machine. And, no, "all the best hotels" are NOT taking microwave ovens out of their rooms because they are "fads" that have "run their course".The other concern was about breakfast.  When you check in, you are given a "ticket" to use for breakfast in the morning. We ordered Denver omelets, but the cook is below par.  She evidently used yesterday's baked potatoes, cutting them up and reheating them for "home fries". When I complained, she admitted it, saying "her attention wandered and the potatoes got too hard".  The omelet itself was dry and sprinkling cheese on the outside did not make it better.This hotel has great rooms, is quiet and relaxing.  It just needs to fix a  few things.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Holiday Inn C, Manager at Holiday Inn Covington Southeast, responded to this reviewResponded April 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is first rate, with a superb staff. Our first concern was the lack of microwave ovens in the room.  When I called the Desk Staff to inquire, I was told I could bring my cup and tea bag down to the desk and use their microwave!After that, I asked 3 more employees and received 4 different excuses.  No, Holiday Inn, microwave ovens do NOT "attract mice".  They do not "cause fires".  And, no, I could not make tea in the K-cup machine. And, no, "all the best hotels" are NOT taking microwave ovens out of their rooms because they are "fads" that have "run their course".The other concern was about breakfast.  When you check in, you are given a "ticket" to use for breakfast in the morning. We ordered Denver omelets, but the cook is below par.  She evidently used yesterday's baked potatoes, cutting them up and reheating them for "home fries". When I complained, she admitted it, saying "her attention wandered and the potatoes got too hard".  The omelet itself was dry and sprinkling cheese on the outside did not make it better.This hotel has great rooms, is quiet and relaxing.  It just needs to fix a  few things.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r561139413-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>561139413</t>
+  </si>
+  <si>
+    <t>02/17/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Experience </t>
+  </si>
+  <si>
+    <t>I have been in several Holiday Inn Hotels and in none of them i found a reason to go online and write a review, That until i met Nicole during a check In at the Holiday Inn in Covington. She has a great personality, very friendly and an exceptional customer service.My friend mentioned to her i wanted to go to Fountaineblue State park and when i was walking by the Front Desk, Nicole called me and handled me directions to the park i wanted to visit and another one, in case i wanted to walk over from the hotel.That really surprised me, she made my day special.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Holiday Inn C, General Manager at Holiday Inn Covington Southeast, responded to this reviewResponded February 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2018</t>
+  </si>
+  <si>
+    <t>I have been in several Holiday Inn Hotels and in none of them i found a reason to go online and write a review, That until i met Nicole during a check In at the Holiday Inn in Covington. She has a great personality, very friendly and an exceptional customer service.My friend mentioned to her i wanted to go to Fountaineblue State park and when i was walking by the Front Desk, Nicole called me and handled me directions to the park i wanted to visit and another one, in case i wanted to walk over from the hotel.That really surprised me, she made my day special.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r556764788-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>556764788</t>
+  </si>
+  <si>
+    <t>01/27/2018</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t>Stayed here last night.  The room was large and very clean.  The bed was quite comfortable and it was very quiet for a good night's sleep.  Everything - from the common areas to the room itself - looked clean and freshly painted. Reasonable rates, too.  I would stay here again in a heartbeat.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r541885857-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>541885857</t>
+  </si>
+  <si>
+    <t>11/18/2017</t>
+  </si>
+  <si>
+    <t>Bar capacity</t>
+  </si>
+  <si>
+    <t>Overall we had a really good time.  It was very clean and updated, and the staff was super helpful.  The only issue we had was there were two large groups staying in the hotel, over 60 people in the bar and outside area, and only one bartender.  It took a very long time to order and get the drinks.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn C, General Manager at Holiday Inn Covington Southeast, responded to this reviewResponded November 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2017</t>
+  </si>
+  <si>
+    <t>Overall we had a really good time.  It was very clean and updated, and the staff was super helpful.  The only issue we had was there were two large groups staying in the hotel, over 60 people in the bar and outside area, and only one bartender.  It took a very long time to order and get the drinks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r536877351-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>536877351</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t>Hotel with Ants</t>
+  </si>
+  <si>
+    <t>We checked into our room 324 only to find ants. We called the lobby and was advised their maintenance manager would address the issue. We waited 45 minutes and called back again. The hotel manager came and started spraying. We left to come back that night to find ants againNever to return KMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Holiday Inn C, General Manager at Holiday Inn Covington Southeast, responded to this reviewResponded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2017</t>
+  </si>
+  <si>
+    <t>We checked into our room 324 only to find ants. We called the lobby and was advised their maintenance manager would address the issue. We waited 45 minutes and called back again. The hotel manager came and started spraying. We left to come back that night to find ants againNever to return KMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r536291327-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>536291327</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>Great place before breakfast</t>
+  </si>
+  <si>
+    <t>Beds are comfortable, and pillows are alright.  They have a gym, and a bar, and a area in which you can sit and visit, plus laundry rooms.  My main concern was the fact that it has a beautiful area for breakfast, but the selection of food is minimal.  They did not have oak meal available in package, or prepared.  They served the exact same food, scrambled eggs, sausage, bacon, small friend potato cubes, and bread for toast, small muffins, and then dry cereal.  They also served grits.  I told the wait staff that it was un-American to serve potatoes without gravy, and biscuits without gravy.  The waiter said, or we have gravy, but it is on the menu, and if you order it, you will have to pay for it.  I could not believe my ears.  You could order off the menu instead of eating the same breakfast off the buffet each morning, and you got a voucher that was worth ten dollars towards the meal, but nothing on the menu was less then ten dollars, especially after tax and cost of your coffee.  Considering the cost of the rooms, I found this very strange.  Apparently they would rather lose customers, then provide a nice breakfast.  How much is oat meal, or a little gravy?  I was with a group for a military reunion, and several of our group noticed, and wondered the same as I did.  The WiFi also...Beds are comfortable, and pillows are alright.  They have a gym, and a bar, and a area in which you can sit and visit, plus laundry rooms.  My main concern was the fact that it has a beautiful area for breakfast, but the selection of food is minimal.  They did not have oak meal available in package, or prepared.  They served the exact same food, scrambled eggs, sausage, bacon, small friend potato cubes, and bread for toast, small muffins, and then dry cereal.  They also served grits.  I told the wait staff that it was un-American to serve potatoes without gravy, and biscuits without gravy.  The waiter said, or we have gravy, but it is on the menu, and if you order it, you will have to pay for it.  I could not believe my ears.  You could order off the menu instead of eating the same breakfast off the buffet each morning, and you got a voucher that was worth ten dollars towards the meal, but nothing on the menu was less then ten dollars, especially after tax and cost of your coffee.  Considering the cost of the rooms, I found this very strange.  Apparently they would rather lose customers, then provide a nice breakfast.  How much is oat meal, or a little gravy?  I was with a group for a military reunion, and several of our group noticed, and wondered the same as I did.  The WiFi also was a mess.  It would come and go.  No really good service.  I spent about five days in this establishment, but I don't believe I will return.MoreShow less</t>
+  </si>
+  <si>
+    <t>Beds are comfortable, and pillows are alright.  They have a gym, and a bar, and a area in which you can sit and visit, plus laundry rooms.  My main concern was the fact that it has a beautiful area for breakfast, but the selection of food is minimal.  They did not have oak meal available in package, or prepared.  They served the exact same food, scrambled eggs, sausage, bacon, small friend potato cubes, and bread for toast, small muffins, and then dry cereal.  They also served grits.  I told the wait staff that it was un-American to serve potatoes without gravy, and biscuits without gravy.  The waiter said, or we have gravy, but it is on the menu, and if you order it, you will have to pay for it.  I could not believe my ears.  You could order off the menu instead of eating the same breakfast off the buffet each morning, and you got a voucher that was worth ten dollars towards the meal, but nothing on the menu was less then ten dollars, especially after tax and cost of your coffee.  Considering the cost of the rooms, I found this very strange.  Apparently they would rather lose customers, then provide a nice breakfast.  How much is oat meal, or a little gravy?  I was with a group for a military reunion, and several of our group noticed, and wondered the same as I did.  The WiFi also...Beds are comfortable, and pillows are alright.  They have a gym, and a bar, and a area in which you can sit and visit, plus laundry rooms.  My main concern was the fact that it has a beautiful area for breakfast, but the selection of food is minimal.  They did not have oak meal available in package, or prepared.  They served the exact same food, scrambled eggs, sausage, bacon, small friend potato cubes, and bread for toast, small muffins, and then dry cereal.  They also served grits.  I told the wait staff that it was un-American to serve potatoes without gravy, and biscuits without gravy.  The waiter said, or we have gravy, but it is on the menu, and if you order it, you will have to pay for it.  I could not believe my ears.  You could order off the menu instead of eating the same breakfast off the buffet each morning, and you got a voucher that was worth ten dollars towards the meal, but nothing on the menu was less then ten dollars, especially after tax and cost of your coffee.  Considering the cost of the rooms, I found this very strange.  Apparently they would rather lose customers, then provide a nice breakfast.  How much is oat meal, or a little gravy?  I was with a group for a military reunion, and several of our group noticed, and wondered the same as I did.  The WiFi also was a mess.  It would come and go.  No really good service.  I spent about five days in this establishment, but I don't believe I will return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r532138573-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>532138573</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Very nice inn</t>
+  </si>
+  <si>
+    <t>very clean and spacious room.   Desk clerk was very nice and accommodating.  Sadly, there is no complimentary breakfast, but there is a coffee pot in the room.  The location is near I-10 making it easy access.   There are numerous restaurants in the area for a variety of dining options.   It was a quick overnight stay with no reservations.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r528165570-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>528165570</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>Weekend Trip</t>
+  </si>
+  <si>
+    <t>In town for a family party.  This hotel was conveniently located for the event.  The hotel accommodated an early check-in.  The staff was friendly and helpful. The room was clean and comfortable.  Mini-fridge in room was helpful. MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn C, General Manager at Holiday Inn Covington Southeast, responded to this reviewResponded October 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2017</t>
+  </si>
+  <si>
+    <t>In town for a family party.  This hotel was conveniently located for the event.  The hotel accommodated an early check-in.  The staff was friendly and helpful. The room was clean and comfortable.  Mini-fridge in room was helpful. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r515157606-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>515157606</t>
+  </si>
+  <si>
+    <t>08/19/2017</t>
+  </si>
+  <si>
+    <t>Perfection!!</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this property before and once again they did not disappoint.  Everything from check in to check out was superb.  The front desk staff is so welcoming they made me feel like i was right at home.  Check in and Check out was quick and we were off to our room.  The room was clean and smelled great.  I love the beds, I sleep like a baby when I am here.  We did get to enjoy breakfast the next morning and the food was delicious.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r494126334-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>494126334</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t>No housekeeping...</t>
+  </si>
+  <si>
+    <t>Two days in a row housekeeping skipped our room and we had to ask for clean towels and empty the garbage ourselves, beds weren't made etc.  I'd really like to find an upside to the stay but coming back to a dirty room kills the visit.  I would avoid this hotel at all costs.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn C, General Manager at Holiday Inn Covington Southeast, responded to this reviewResponded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Two days in a row housekeeping skipped our room and we had to ask for clean towels and empty the garbage ourselves, beds weren't made etc.  I'd really like to find an upside to the stay but coming back to a dirty room kills the visit.  I would avoid this hotel at all costs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r492682259-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>492682259</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>Road trip- perfect hotel</t>
+  </si>
+  <si>
+    <t>5 state road trip. This is a new well managed hotel. Rooms are clean and hotel offers full omelet breakfast which is unusual for a Holiday Inn express. Site also has full bar and free wi-fi. This hotel gets my highest rating.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r492610549-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>492610549</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel that is close to home. Nothing else to say. We've mostly stayed here after AC problems, and they hardly ever fail to deliver. I do have one complaint, however, is that the internet is a tad bit slow, and does not deserve to be called "high speed". Other than that, this is a good hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn C, General Manager at Holiday Inn Covington Southeast, responded to this reviewResponded June 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2017</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel that is close to home. Nothing else to say. We've mostly stayed here after AC problems, and they hardly ever fail to deliver. I do have one complaint, however, is that the internet is a tad bit slow, and does not deserve to be called "high speed". Other than that, this is a good hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r490212886-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>490212886</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t>Exceptional Guest Service!!!!!</t>
+  </si>
+  <si>
+    <t>I am a frequent guest of this hotel for many reasons, but the main one is the exceptional guest service. This team gets it!!!! I have been a Diamond member with the Hilton brand for a while and have really enjoyed the status and the perks. In May I booked a room with points and cash, but there was an error in the app. and upon checking in 30,000 points were removed from my account. I was devastated only because I was a victim of the flood in August 2016. I was remodeling my home and I lost pretty much everything. I called the Diamond help line and was told there was nothing they could do because I had already checked in. I was beyond livid because this is my me time. I will have been out of my home almost a year come July 2017. All that to say, it not where you go but who you know and how you are treated. This team is AMAZING!! as soon as they heard what had happened they came to the rescue. I have been a reoccurring guest at this hotel for almost 3 yrs. They did the right thing and gave me point redemption. Ms. Kathy, Mandy, Sonya, Andrea and now Able are a few of the reasons I continue to come back, but the overall staff are awesome. (They understand it's about the guest) Sometimes companies get so big...I am a frequent guest of this hotel for many reasons, but the main one is the exceptional guest service. This team gets it!!!! I have been a Diamond member with the Hilton brand for a while and have really enjoyed the status and the perks. In May I booked a room with points and cash, but there was an error in the app. and upon checking in 30,000 points were removed from my account. I was devastated only because I was a victim of the flood in August 2016. I was remodeling my home and I lost pretty much everything. I called the Diamond help line and was told there was nothing they could do because I had already checked in. I was beyond livid because this is my me time. I will have been out of my home almost a year come July 2017. All that to say, it not where you go but who you know and how you are treated. This team is AMAZING!! as soon as they heard what had happened they came to the rescue. I have been a reoccurring guest at this hotel for almost 3 yrs. They did the right thing and gave me point redemption. Ms. Kathy, Mandy, Sonya, Andrea and now Able are a few of the reasons I continue to come back, but the overall staff are awesome. (They understand it's about the guest) Sometimes companies get so big that they forget about what's important, but it's the employees  that are on the front line everyday who get and deserve praise. Thanks to this team and stay AMAZING!!!! YOU DESERVE THIS PRAISE.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I am a frequent guest of this hotel for many reasons, but the main one is the exceptional guest service. This team gets it!!!! I have been a Diamond member with the Hilton brand for a while and have really enjoyed the status and the perks. In May I booked a room with points and cash, but there was an error in the app. and upon checking in 30,000 points were removed from my account. I was devastated only because I was a victim of the flood in August 2016. I was remodeling my home and I lost pretty much everything. I called the Diamond help line and was told there was nothing they could do because I had already checked in. I was beyond livid because this is my me time. I will have been out of my home almost a year come July 2017. All that to say, it not where you go but who you know and how you are treated. This team is AMAZING!! as soon as they heard what had happened they came to the rescue. I have been a reoccurring guest at this hotel for almost 3 yrs. They did the right thing and gave me point redemption. Ms. Kathy, Mandy, Sonya, Andrea and now Able are a few of the reasons I continue to come back, but the overall staff are awesome. (They understand it's about the guest) Sometimes companies get so big...I am a frequent guest of this hotel for many reasons, but the main one is the exceptional guest service. This team gets it!!!! I have been a Diamond member with the Hilton brand for a while and have really enjoyed the status and the perks. In May I booked a room with points and cash, but there was an error in the app. and upon checking in 30,000 points were removed from my account. I was devastated only because I was a victim of the flood in August 2016. I was remodeling my home and I lost pretty much everything. I called the Diamond help line and was told there was nothing they could do because I had already checked in. I was beyond livid because this is my me time. I will have been out of my home almost a year come July 2017. All that to say, it not where you go but who you know and how you are treated. This team is AMAZING!! as soon as they heard what had happened they came to the rescue. I have been a reoccurring guest at this hotel for almost 3 yrs. They did the right thing and gave me point redemption. Ms. Kathy, Mandy, Sonya, Andrea and now Able are a few of the reasons I continue to come back, but the overall staff are awesome. (They understand it's about the guest) Sometimes companies get so big that they forget about what's important, but it's the employees  that are on the front line everyday who get and deserve praise. Thanks to this team and stay AMAZING!!!! YOU DESERVE THIS PRAISE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r486656122-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>486656122</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>NICE HOTEL,BUT</t>
+  </si>
+  <si>
+    <t>I have had a roach in my room on two separate occasions and problems with the staff on two occasions. Also the traffic pretty bad in Covington. However,it's a clean hotel with comfortable rooms, except for the occasional roach.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Covington Southeast, responded to this reviewResponded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>I have had a roach in my room on two separate occasions and problems with the staff on two occasions. Also the traffic pretty bad in Covington. However,it's a clean hotel with comfortable rooms, except for the occasional roach.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r486513127-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>486513127</t>
+  </si>
+  <si>
+    <t>Ms. T</t>
+  </si>
+  <si>
+    <t>On 5/20/17 greeted by a very polite attendant. Very clean hotel was surprised to find a roach crawling on wall during nite.  Before checking out visited ice machine on 5th floor &amp; ice containing frozen roach fell into our bucket. Breakfast very unorganized took 1 hour to get eggs and order was incorrect.  Not worth $33 for 3 people.MoreShow less</t>
+  </si>
+  <si>
+    <t>On 5/20/17 greeted by a very polite attendant. Very clean hotel was surprised to find a roach crawling on wall during nite.  Before checking out visited ice machine on 5th floor &amp; ice containing frozen roach fell into our bucket. Breakfast very unorganized took 1 hour to get eggs and order was incorrect.  Not worth $33 for 3 people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r485650563-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>485650563</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t>Very Restful, Pleasant &amp; Quiet</t>
+  </si>
+  <si>
+    <t>This is my second visit to this particular hotel. Both visits were excellent. From the ladies that checked us in to the wait staff all were very helpful &amp; pleasant to deal with. This is one reason my family &amp; I choose Holiday inn &amp; affiliates. You know you are getting a clean room, decent service and usually in a safe part of town.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn C, Manager at Holiday Inn Covington Southeast, responded to this reviewResponded May 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2017</t>
+  </si>
+  <si>
+    <t>This is my second visit to this particular hotel. Both visits were excellent. From the ladies that checked us in to the wait staff all were very helpful &amp; pleasant to deal with. This is one reason my family &amp; I choose Holiday inn &amp; affiliates. You know you are getting a clean room, decent service and usually in a safe part of town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r482120277-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>482120277</t>
+  </si>
+  <si>
+    <t>05/06/2017</t>
+  </si>
+  <si>
+    <t>Very comfortable.</t>
+  </si>
+  <si>
+    <t>Only a couple drawbacks to this particular Holiday Inn.  The first has to do more with the town then anything else. The traffic in Covington Louisiana is excruciatingly slow for a small town. Second, sometimes getting in and out of the property is challenging.The lobby is warm and inviting in a contemporary style. The swimming pool is small and narrow but does have nice water features. The room is large and comfortable, with a wonderful bed.The real surprise comes when you exit the elevator and discover the elevator lobby and the hallways  are very much a psychedelic throwback to the 1960s. Somehow, everything seems to work. Except for the Wi-Fi which has a terribly weak signal. MoreShow less</t>
+  </si>
+  <si>
+    <t>Laura R, General Manager at Holiday Inn Covington Southeast, responded to this reviewResponded May 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2017</t>
+  </si>
+  <si>
+    <t>Only a couple drawbacks to this particular Holiday Inn.  The first has to do more with the town then anything else. The traffic in Covington Louisiana is excruciatingly slow for a small town. Second, sometimes getting in and out of the property is challenging.The lobby is warm and inviting in a contemporary style. The swimming pool is small and narrow but does have nice water features. The room is large and comfortable, with a wonderful bed.The real surprise comes when you exit the elevator and discover the elevator lobby and the hallways  are very much a psychedelic throwback to the 1960s. Somehow, everything seems to work. Except for the Wi-Fi which has a terribly weak signal. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r480573662-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>480573662</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>We love this location and hotel.</t>
+  </si>
+  <si>
+    <t>This hotel is the perfect location for us when visiting family.  I would highly recommend it.  The only issue this time was the smell of smoke in the morning on our floor when we were departing.  It was a non smoking floor but it was obvious that someone was smoking. I mentioned it to the front desk clerk when checking out.  Not really the hotel's fault but the desk clerk didn't really seem concerned.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>This hotel is the perfect location for us when visiting family.  I would highly recommend it.  The only issue this time was the smell of smoke in the morning on our floor when we were departing.  It was a non smoking floor but it was obvious that someone was smoking. I mentioned it to the front desk clerk when checking out.  Not really the hotel's fault but the desk clerk didn't really seem concerned.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r480278742-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>480278742</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>Excellent FD Staff!!</t>
+  </si>
+  <si>
+    <t>We had two rooms over the weekend and was a verylate arrival.  Ms. Sandra at the desk was super nice and welcoming!  She greeted us with such a warm smile upon check in!  The next day, Ms. Kelsey and Ms. Gigi, welcomed us with a warm smile as well.  We felt like we were home!Ms. Kaitlin and Ms. Miranda (?)  (new trainee)  was so very helpful with the firepit!  They must have tried many times to get the fire pit started because they couldn't find the key.  They didn't give up and went above and beyond to get that fire pit started for us and other hotel guests.  We are so appreciative of their endless effort!Thank you for such wonderful hospitality! We will most definitely be staying here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>We had two rooms over the weekend and was a verylate arrival.  Ms. Sandra at the desk was super nice and welcoming!  She greeted us with such a warm smile upon check in!  The next day, Ms. Kelsey and Ms. Gigi, welcomed us with a warm smile as well.  We felt like we were home!Ms. Kaitlin and Ms. Miranda (?)  (new trainee)  was so very helpful with the firepit!  They must have tried many times to get the fire pit started because they couldn't find the key.  They didn't give up and went above and beyond to get that fire pit started for us and other hotel guests.  We are so appreciative of their endless effort!Thank you for such wonderful hospitality! We will most definitely be staying here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r469745624-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>469745624</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t>Kelsea *Stellar Service*</t>
+  </si>
+  <si>
+    <t>Let me start by saying, I travel the entire south + Louisiana and Arkansas for business. I always stay on IHG property as I like to keep my status with their Rewards membership. Enough about me...If you ever are looking for a nice clean modern looking Hotel reasonably priced and a five star service you can count with Kelsea at this holidayinn. She answered my phone call so courteous, professionally that I couldn't believe the service was receiving. Upon arrival it was even better. She makes her guests feel they are checking-in in some 5 star resort at some exotic island somewhere. She was that good. I am very impressed and recommend this Hotel to anyone, specifically if you can get taking care by Kelsea. MoreShow less</t>
+  </si>
+  <si>
+    <t>Let me start by saying, I travel the entire south + Louisiana and Arkansas for business. I always stay on IHG property as I like to keep my status with their Rewards membership. Enough about me...If you ever are looking for a nice clean modern looking Hotel reasonably priced and a five star service you can count with Kelsea at this holidayinn. She answered my phone call so courteous, professionally that I couldn't believe the service was receiving. Upon arrival it was even better. She makes her guests feel they are checking-in in some 5 star resort at some exotic island somewhere. She was that good. I am very impressed and recommend this Hotel to anyone, specifically if you can get taking care by Kelsea. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r460343352-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>460343352</t>
+  </si>
+  <si>
+    <t>02/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly and helpful staff. </t>
+  </si>
+  <si>
+    <t>I stayed here during the week before Mardi Gras. It was a wonderful visit. Very modern. The room was to par and had wonderful water pressure unlike the last hotel holiday inn I stayed at. The atmosphere is very welcoming. The Server Michael downstairs in the restaurant was very helpful and saved me some money. Overall it was a very great experience and I would recommend anyone here. Thank you holiday inn Covington for a great visit. Mr. Fisher. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Michael O, General Manager at Holiday Inn Covington Southeast, responded to this reviewResponded February 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here during the week before Mardi Gras. It was a wonderful visit. Very modern. The room was to par and had wonderful water pressure unlike the last hotel holiday inn I stayed at. The atmosphere is very welcoming. The Server Michael downstairs in the restaurant was very helpful and saved me some money. Overall it was a very great experience and I would recommend anyone here. Thank you holiday inn Covington for a great visit. Mr. Fisher. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r459480870-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>459480870</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Close enough to SE Louisiana to visit a sporting event</t>
+  </si>
+  <si>
+    <t>The Holiday Inn in Covington is  a newer hotel and very nice inside and out.  It was clean, easy to get to and a pleasant stay.  The king deluxe room is very spacious but does not have a couch, only a chair and ottoman.  The double room has two queen beds and is very spacious also.  Both rooms have a mini fridge.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Holiday Inn in Covington is  a newer hotel and very nice inside and out.  It was clean, easy to get to and a pleasant stay.  The king deluxe room is very spacious but does not have a couch, only a chair and ottoman.  The double room has two queen beds and is very spacious also.  Both rooms have a mini fridge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r457215483-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>457215483</t>
+  </si>
+  <si>
+    <t>02/04/2017</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nights and were very pleased. It was a double room and had 2 queens instead of 2 fulls like most hotels. The hotel is new and clean. We will definitely stay here again next time we are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nights and were very pleased. It was a double room and had 2 queens instead of 2 fulls like most hotels. The hotel is new and clean. We will definitely stay here again next time we are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r452877264-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>452877264</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>GREAT ASSOCIATE  KATELYN AND  STAFF</t>
+  </si>
+  <si>
+    <t>we came back after 2 years and wanted to say help again and thank you for having us. great place very clean, but most of all the associate katelyn and the staff were so helpful and very professional after checking in the associate katelyn came over and said thank you Mr. anders for staying with us i remember you from the past and wanted to say thank you. i take this very personal for such a genuine person and i would love this person work for my company she is one in a million.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>we came back after 2 years and wanted to say help again and thank you for having us. great place very clean, but most of all the associate katelyn and the staff were so helpful and very professional after checking in the associate katelyn came over and said thank you Mr. anders for staying with us i remember you from the past and wanted to say thank you. i take this very personal for such a genuine person and i would love this person work for my company she is one in a million.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r451323409-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>451323409</t>
+  </si>
+  <si>
+    <t>01/11/2017</t>
+  </si>
+  <si>
+    <t>Good place to stay when you are on the road</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay here. We were driving home from Disney World and this is as far as we got.  Place is new and clean. It is a little odd to get to, you circle away from it before the road brings you back. The showers were hot and strong, and after a day in the car with the grandkids, very welcome.  The price was average, there was a free breakfast the next morning.  Staff was personable. And the place is right by a Sams Club.  We would stay here again</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r446227017-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>446227017</t>
+  </si>
+  <si>
+    <t>12/23/2016</t>
+  </si>
+  <si>
+    <t>Brand new</t>
+  </si>
+  <si>
+    <t>This place is brand spankin new. Thats a huge plus! Everything was clean and modern. They have nice bath and body soaps and shampoos! Good stay nice area looks fairly new in style around town with mix of some old strip malls. All in all seemed fairly safe neighborhood to stay in.MoreShow less</t>
+  </si>
+  <si>
+    <t>This place is brand spankin new. Thats a huge plus! Everything was clean and modern. They have nice bath and body soaps and shampoos! Good stay nice area looks fairly new in style around town with mix of some old strip malls. All in all seemed fairly safe neighborhood to stay in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r444893334-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>444893334</t>
+  </si>
+  <si>
+    <t>12/17/2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn did it again</t>
+  </si>
+  <si>
+    <t>This is a very nicely done hotel.  The rooms are well done and clean.  We had a nice view of the sunset.  The hotel had a very friendly staff who have us a wonderful recommendation for lunch.  The rates are very good.  We certainly enjoyed our visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a very nicely done hotel.  The rooms are well done and clean.  We had a nice view of the sunset.  The hotel had a very friendly staff who have us a wonderful recommendation for lunch.  The rates are very good.  We certainly enjoyed our visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r437253535-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>437253535</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Such a nice hotel and friendly people. Great rates and in an area with lots of convenient food places, shops and coffee. The room was very clean and roomy. They have a quaint little pool, which we liked very much. The breakfast buffet is reasonable and good. We had fun. There is a really good Asian restaurant next door! MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Michael O, General Manager at Holiday Inn Covington Southeast, responded to this reviewResponded November 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2016</t>
+  </si>
+  <si>
+    <t>Such a nice hotel and friendly people. Great rates and in an area with lots of convenient food places, shops and coffee. The room was very clean and roomy. They have a quaint little pool, which we liked very much. The breakfast buffet is reasonable and good. We had fun. There is a really good Asian restaurant next door! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r436000480-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>436000480</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>Marketing Director</t>
+  </si>
+  <si>
+    <t>This was a great property! Clean, welcoming, great service, and a good bar/restaurant. I would stay here again for sure!They have a good gym, and a great outdoor patio/pool! Good location around many restaurants and shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>This was a great property! Clean, welcoming, great service, and a good bar/restaurant. I would stay here again for sure!They have a good gym, and a great outdoor patio/pool! Good location around many restaurants and shopping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r433400427-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>433400427</t>
+  </si>
+  <si>
+    <t>10/31/2016</t>
+  </si>
+  <si>
+    <t>Another great find 😀👍🏼</t>
+  </si>
+  <si>
+    <t>Heading back home and decided to stop in Covington LA at the holiday inn.. beautiful hotel only 2 or 3 years old.. excellent rooms very modern and the food was amazing.. The chief made a special with shrimp and catfish with a homemade sauce OMG.. It was delicious. Hotel has very friendly staff I would definitely stay here again MoreShow less</t>
+  </si>
+  <si>
+    <t>Heading back home and decided to stop in Covington LA at the holiday inn.. beautiful hotel only 2 or 3 years old.. excellent rooms very modern and the food was amazing.. The chief made a special with shrimp and catfish with a homemade sauce OMG.. It was delicious. Hotel has very friendly staff I would definitely stay here again More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r428953419-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>428953419</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Great location, excellent value</t>
+  </si>
+  <si>
+    <t>My overall experience here was very good. My room was very clean, comfortable and smelled nice. The whole hotel smelled good in fact! The staff was friendly and courteous. The location is convenient to everything we wanted to do in Mandeville, Madisonville, Covington and surrounding areas. Very reasonable rate also!My only complaint was the noise level at night. We were in town to run a race in Mandeville and were woken up throughout the night by slamming doors and talking. Perhaps the walls are a little too thin. I would still recommend this hotel and would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r427079952-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>427079952</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>They upgraded our room to a handicap room which gave us plenty of room. It had a fridge, which we were pleasantly surprised to find. I wouldn't expect every room to have one, but we were lucky enough to. The room was quiet, despite being next to the elevator. Decor was pleasant. We really enjoyed our stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r426245997-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>426245997</t>
+  </si>
+  <si>
+    <t>10/08/2016</t>
+  </si>
+  <si>
+    <t>Happy Birthday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spent one night at the Holiday Inn Covington. Everything looked brand new. Staff was friendly.  When we got back to the hotel we stopped in the bar for a drink and to watch the FSU/Miami game. Tara was the bartender and did a great job. Not only did she make a fine dirty martini she suggested a few places for breakfast the next day. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r426120946-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>426120946</t>
+  </si>
+  <si>
+    <t>Excellent will Return</t>
+  </si>
+  <si>
+    <t>I was visiting friends in Covington and stayed at this hotel.  It was perfect.  Service Great, beds comfortable, room cool which is important to me, even had a very nice bar.  TV channels were plenty.  Check out time was 11 am and I over slept to 11:30 am.  They were so nice about it and let me get ready at my leisure.  I was very impressed with this.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r417518667-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>417518667</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>comfortable but with a few annoyances and shortcomings</t>
+  </si>
+  <si>
+    <t>We had a nice two night stay at this two-year-old hotel that is well maintained and well cleaned. The staff is consistently attentive and courteous, indicating effective management. We liked the spacious lobby, the available in-hotel adult bar, and the comfortable bedding. 
+The standard two-queen room is not small, but it would be misleading to refer to it as big. It's fine for one or two, but starting to get cramped with three people and all their travelling gear. There is a small fridge but surprisingly no microwave. There are at least two nice restaurants within a few hundred steps of the hotel, and probably a dozen others, including fast food, within a quarter mile.It is nice that they have a restaurant available in the hotel, but we did not use it.
+On the annoying side were the awkward size and strange placement of the doors in our room: If the closet door is open, it blocks the entrance door from opening. If the bathroom door is open, it closes itself, even if you want to keep it open. If someone is, say, standing at the sink in the bathroom, the wide swing of the bathroom door prevents anyone else from entering without some awkward shifting and shuffling around for both people.  The entrance door has a gap below it that allows in bright light from the hallway all night long.
+The through-the-wall air conditioner is noisy and rattles so...We had a nice two night stay at this two-year-old hotel that is well maintained and well cleaned. The staff is consistently attentive and courteous, indicating effective management. We liked the spacious lobby, the available in-hotel adult bar, and the comfortable bedding. The standard two-queen room is not small, but it would be misleading to refer to it as big. It's fine for one or two, but starting to get cramped with three people and all their travelling gear. There is a small fridge but surprisingly no microwave. There are at least two nice restaurants within a few hundred steps of the hotel, and probably a dozen others, including fast food, within a quarter mile.It is nice that they have a restaurant available in the hotel, but we did not use it.On the annoying side were the awkward size and strange placement of the doors in our room: If the closet door is open, it blocks the entrance door from opening. If the bathroom door is open, it closes itself, even if you want to keep it open. If someone is, say, standing at the sink in the bathroom, the wide swing of the bathroom door prevents anyone else from entering without some awkward shifting and shuffling around for both people.  The entrance door has a gap below it that allows in bright light from the hallway all night long.The through-the-wall air conditioner is noisy and rattles so much we thought there was a hail storm one night. The small swimming pool has several attractive modern "water falls" flowing into it, but it is physically situated so that the sun rarely strikes the water, resulting in fr-fr-frigid water temperatures. There is not much available seating around the pool. The nearby fire pit, in the next section, would be nice to sit around on a cool evening.The bottom line is that this is a comfortable well-managed hotel with a great staff but a few architectural annoyances and shortcomings.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Covington Southeast, responded to this reviewResponded September 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2016</t>
+  </si>
+  <si>
+    <t>We had a nice two night stay at this two-year-old hotel that is well maintained and well cleaned. The staff is consistently attentive and courteous, indicating effective management. We liked the spacious lobby, the available in-hotel adult bar, and the comfortable bedding. 
+The standard two-queen room is not small, but it would be misleading to refer to it as big. It's fine for one or two, but starting to get cramped with three people and all their travelling gear. There is a small fridge but surprisingly no microwave. There are at least two nice restaurants within a few hundred steps of the hotel, and probably a dozen others, including fast food, within a quarter mile.It is nice that they have a restaurant available in the hotel, but we did not use it.
+On the annoying side were the awkward size and strange placement of the doors in our room: If the closet door is open, it blocks the entrance door from opening. If the bathroom door is open, it closes itself, even if you want to keep it open. If someone is, say, standing at the sink in the bathroom, the wide swing of the bathroom door prevents anyone else from entering without some awkward shifting and shuffling around for both people.  The entrance door has a gap below it that allows in bright light from the hallway all night long.
+The through-the-wall air conditioner is noisy and rattles so...We had a nice two night stay at this two-year-old hotel that is well maintained and well cleaned. The staff is consistently attentive and courteous, indicating effective management. We liked the spacious lobby, the available in-hotel adult bar, and the comfortable bedding. The standard two-queen room is not small, but it would be misleading to refer to it as big. It's fine for one or two, but starting to get cramped with three people and all their travelling gear. There is a small fridge but surprisingly no microwave. There are at least two nice restaurants within a few hundred steps of the hotel, and probably a dozen others, including fast food, within a quarter mile.It is nice that they have a restaurant available in the hotel, but we did not use it.On the annoying side were the awkward size and strange placement of the doors in our room: If the closet door is open, it blocks the entrance door from opening. If the bathroom door is open, it closes itself, even if you want to keep it open. If someone is, say, standing at the sink in the bathroom, the wide swing of the bathroom door prevents anyone else from entering without some awkward shifting and shuffling around for both people.  The entrance door has a gap below it that allows in bright light from the hallway all night long.The through-the-wall air conditioner is noisy and rattles so much we thought there was a hail storm one night. The small swimming pool has several attractive modern "water falls" flowing into it, but it is physically situated so that the sun rarely strikes the water, resulting in fr-fr-frigid water temperatures. There is not much available seating around the pool. The nearby fire pit, in the next section, would be nice to sit around on a cool evening.The bottom line is that this is a comfortable well-managed hotel with a great staff but a few architectural annoyances and shortcomings.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r403009091-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>403009091</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t>Love it!</t>
+  </si>
+  <si>
+    <t>I can't believe this hotel isn't ranked higher!  We love the staff, Margaret, Tara and Catelyn are all great and super helpful. The property is immaculate and still has that new house smell! And after a long day travelling you can walk next door to a great asian restaurant or across the street to Copelands. This is the place to stay in Covington!MoreShow less</t>
+  </si>
+  <si>
+    <t>I can't believe this hotel isn't ranked higher!  We love the staff, Margaret, Tara and Catelyn are all great and super helpful. The property is immaculate and still has that new house smell! And after a long day travelling you can walk next door to a great asian restaurant or across the street to Copelands. This is the place to stay in Covington!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r402593972-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>402593972</t>
+  </si>
+  <si>
+    <t>08/07/2016</t>
+  </si>
+  <si>
+    <t>New Hotel with modern amenities and large rooms</t>
+  </si>
+  <si>
+    <t>Although our gps via waze got us close enough to see the hotel, there seems to be a problem with it finding the place,  I recommend you use the address and not the hotel name.   Easy check in, new modern hotel with bar, pool , gym, free internet, breakfast a la cart or you can get with room.   Large comfortable rooms , dog friendly, accommodating staff.  close too a lot of restaurants and the interstateMoreShow less</t>
+  </si>
+  <si>
+    <t>Although our gps via waze got us close enough to see the hotel, there seems to be a problem with it finding the place,  I recommend you use the address and not the hotel name.   Easy check in, new modern hotel with bar, pool , gym, free internet, breakfast a la cart or you can get with room.   Large comfortable rooms , dog friendly, accommodating staff.  close too a lot of restaurants and the interstateMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r400202659-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>400202659</t>
+  </si>
+  <si>
+    <t>08/01/2016</t>
+  </si>
+  <si>
+    <t>Great hotel (new)</t>
+  </si>
+  <si>
+    <t>This hotel was pristine and new!  It is in a good location with lots of dining options nearby!  We stayed there last year to avoid staying in New Orleans!  It was a pleasant surprise!  There was adequate parking and the lot was well lit!  There is no free breakfast but you can't win them all!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Michael O, General Manager at Holiday Inn Covington Southeast, responded to this reviewResponded August 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2016</t>
+  </si>
+  <si>
+    <t>This hotel was pristine and new!  It is in a good location with lots of dining options nearby!  We stayed there last year to avoid staying in New Orleans!  It was a pleasant surprise!  There was adequate parking and the lot was well lit!  There is no free breakfast but you can't win them all!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r395630528-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>395630528</t>
+  </si>
+  <si>
+    <t>07/22/2016</t>
+  </si>
+  <si>
+    <t>Escape</t>
+  </si>
+  <si>
+    <t>My husband I stayed here for two nights. We live right around the hotel but was having some issues with our home. What a very pleasant surprise this hotel was. From the min we walked in the door till we checked out. Staff wonderful. Rooms very nice and clean ! I recommend this hotel very highly. It is close to many restraints. And if you hop on the causeway the French quarters are just about 40 miles away ! MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Michael O, General Manager at Holiday Inn Covington Southeast, responded to this reviewResponded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2016</t>
+  </si>
+  <si>
+    <t>My husband I stayed here for two nights. We live right around the hotel but was having some issues with our home. What a very pleasant surprise this hotel was. From the min we walked in the door till we checked out. Staff wonderful. Rooms very nice and clean ! I recommend this hotel very highly. It is close to many restraints. And if you hop on the causeway the French quarters are just about 40 miles away ! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r394893712-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>394893712</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t>Very nice place</t>
+  </si>
+  <si>
+    <t>Spent several days here for a baseball tourney. Impressed... Clean-- friendly staff-- great location-- comfortable room. Only complaint was the breakfast.. Would highly recommend this location. Oh, if you use the washing machines, they're HE-- less soap!MoreShow less</t>
+  </si>
+  <si>
+    <t>Spent several days here for a baseball tourney. Impressed... Clean-- friendly staff-- great location-- comfortable room. Only complaint was the breakfast.. Would highly recommend this location. Oh, if you use the washing machines, they're HE-- less soap!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r394674519-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>394674519</t>
+  </si>
+  <si>
+    <t>Fantastic stay!!!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel while visiting family in the area. Such a wonderful surprise to be greeted by such warm and friendly front desk staff.  My room was so clean and spacious and outlets everywhere to plug in my electronics.  You don't see that often at hotels.  I was impressed by the bright lighting in the bathrooms too!  I was informed that the hotel was a year and a half old but I couldn't tell, looked to be only a couple of months old.  Still smelled brand new!  The breakfast was delicious and the restaurant staff was superb! I will be sure to stay here again on my next trip to Covington!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel while visiting family in the area. Such a wonderful surprise to be greeted by such warm and friendly front desk staff.  My room was so clean and spacious and outlets everywhere to plug in my electronics.  You don't see that often at hotels.  I was impressed by the bright lighting in the bathrooms too!  I was informed that the hotel was a year and a half old but I couldn't tell, looked to be only a couple of months old.  Still smelled brand new!  The breakfast was delicious and the restaurant staff was superb! I will be sure to stay here again on my next trip to Covington!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r388477351-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>388477351</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very clean new hotel </t>
+  </si>
+  <si>
+    <t>Stayed here 1 night for a lacrosse tournament. The hotel and rooms were very clean and new. Bed was very comfortable and bathroom well appointed. Did not eat there or try the pool but both appeared very nice. Staff was competent but a tad slow to check in or out. Overall would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here 1 night for a lacrosse tournament. The hotel and rooms were very clean and new. Bed was very comfortable and bathroom well appointed. Did not eat there or try the pool but both appeared very nice. Staff was competent but a tad slow to check in or out. Overall would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r386735187-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>386735187</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Not worth the money</t>
+  </si>
+  <si>
+    <t>Our room looked very new and clean for the most part and the whole building looked like it was newly build or renovated.  A few minutes after check in we found that our front door did not latch and would not stay locked. I called in a panic to the front desk and ask for a maintenance person and she said she would come up and look at it. After what seemed like forever in a room that didn’t lock, she came up and tested the door and saw that it did not lock. After a FEW VERY FORCEFUL and loud slam of the door it finally locked. Then she said oh it’s not broken you just have to slam very hard. Well, that made just feel stupid but she had it locked. When she left we tried it and we slammed…..and slammed…..AND SLAMMED that door and it took 5 LOUD slams to finally get it to latch. After all that work we decided to stay in the room since we were just 1 night and passing through. Plus I had already taken a shower and used the bathroom. The refrigerator in the room was noisy as was the fan but we finally were able to go to sleep but then At 2am in morning we were awaking with lots of other slams and kids running and yacking off in the hallway. When after 10 minutes they did not quite...Our room looked very new and clean for the most part and the whole building looked like it was newly build or renovated.  A few minutes after check in we found that our front door did not latch and would not stay locked. I called in a panic to the front desk and ask for a maintenance person and she said she would come up and look at it. After what seemed like forever in a room that didn’t lock, she came up and tested the door and saw that it did not lock. After a FEW VERY FORCEFUL and loud slam of the door it finally locked. Then she said oh it’s not broken you just have to slam very hard. Well, that made just feel stupid but she had it locked. When she left we tried it and we slammed…..and slammed…..AND SLAMMED that door and it took 5 LOUD slams to finally get it to latch. After all that work we decided to stay in the room since we were just 1 night and passing through. Plus I had already taken a shower and used the bathroom. The refrigerator in the room was noisy as was the fan but we finally were able to go to sleep but then At 2am in morning we were awaking with lots of other slams and kids running and yacking off in the hallway. When after 10 minutes they did not quite down I had to call the front desk to complain. Luckily the desk clerk said that they were kids and he just informed their chaperon.  Another  5 mins passed and then I finally heard an adult, which was probably their chaperon yelling at them for embarrassing him and having him tell them to quiet down, etc. The next day we went down for their $9.99 per person breakfast of course after we did another 3-5 tries at slamming the door!  The breakfast was meager and disappointing especially since we had to pay for it. Honestly, except for the section where they make the eggs to your liking, the whole breakfast was not worth the money. All the complimentary ones at the Best Western Plus are a lot better and free!  As I checked out I stressed that the door had to be fixed and not left at “Oh, you have to slam really hard”.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael O, General Manager at Holiday Inn Covington Southeast, responded to this reviewResponded June 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2016</t>
+  </si>
+  <si>
+    <t>Our room looked very new and clean for the most part and the whole building looked like it was newly build or renovated.  A few minutes after check in we found that our front door did not latch and would not stay locked. I called in a panic to the front desk and ask for a maintenance person and she said she would come up and look at it. After what seemed like forever in a room that didn’t lock, she came up and tested the door and saw that it did not lock. After a FEW VERY FORCEFUL and loud slam of the door it finally locked. Then she said oh it’s not broken you just have to slam very hard. Well, that made just feel stupid but she had it locked. When she left we tried it and we slammed…..and slammed…..AND SLAMMED that door and it took 5 LOUD slams to finally get it to latch. After all that work we decided to stay in the room since we were just 1 night and passing through. Plus I had already taken a shower and used the bathroom. The refrigerator in the room was noisy as was the fan but we finally were able to go to sleep but then At 2am in morning we were awaking with lots of other slams and kids running and yacking off in the hallway. When after 10 minutes they did not quite...Our room looked very new and clean for the most part and the whole building looked like it was newly build or renovated.  A few minutes after check in we found that our front door did not latch and would not stay locked. I called in a panic to the front desk and ask for a maintenance person and she said she would come up and look at it. After what seemed like forever in a room that didn’t lock, she came up and tested the door and saw that it did not lock. After a FEW VERY FORCEFUL and loud slam of the door it finally locked. Then she said oh it’s not broken you just have to slam very hard. Well, that made just feel stupid but she had it locked. When she left we tried it and we slammed…..and slammed…..AND SLAMMED that door and it took 5 LOUD slams to finally get it to latch. After all that work we decided to stay in the room since we were just 1 night and passing through. Plus I had already taken a shower and used the bathroom. The refrigerator in the room was noisy as was the fan but we finally were able to go to sleep but then At 2am in morning we were awaking with lots of other slams and kids running and yacking off in the hallway. When after 10 minutes they did not quite down I had to call the front desk to complain. Luckily the desk clerk said that they were kids and he just informed their chaperon.  Another  5 mins passed and then I finally heard an adult, which was probably their chaperon yelling at them for embarrassing him and having him tell them to quiet down, etc. The next day we went down for their $9.99 per person breakfast of course after we did another 3-5 tries at slamming the door!  The breakfast was meager and disappointing especially since we had to pay for it. Honestly, except for the section where they make the eggs to your liking, the whole breakfast was not worth the money. All the complimentary ones at the Best Western Plus are a lot better and free!  As I checked out I stressed that the door had to be fixed and not left at “Oh, you have to slam really hard”.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r380325741-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>380325741</t>
+  </si>
+  <si>
+    <t>06/06/2016</t>
+  </si>
+  <si>
+    <t>Still Wonderful.</t>
+  </si>
+  <si>
+    <t>I spent the night at this hotel back in 2014 around when they first opened up.  Came back for a second visit and all i can say is everything was just as wonderful as my first stay.  Still Highly Recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>I spent the night at this hotel back in 2014 around when they first opened up.  Came back for a second visit and all i can say is everything was just as wonderful as my first stay.  Still Highly Recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r378038027-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>378038027</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel!</t>
+  </si>
+  <si>
+    <t>Will definitely stay at this hotel again. Very nice, clean, beautiful decor throughout the hotel, large rooms with friendly service. Asked for an extra blanket and it was promptly delivered to our door.  My husband and I both loved the comfortable bed and slept very well. Not much noise at all which we were surprised with since the hotel was booked on this Memorial Day weekend. The pool looked very inviting but we didn't get to use it.  Great job Holiday Inn!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Will definitely stay at this hotel again. Very nice, clean, beautiful decor throughout the hotel, large rooms with friendly service. Asked for an extra blanket and it was promptly delivered to our door.  My husband and I both loved the comfortable bed and slept very well. Not much noise at all which we were surprised with since the hotel was booked on this Memorial Day weekend. The pool looked very inviting but we didn't get to use it.  Great job Holiday Inn!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r361896665-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>361896665</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>Another Great Stay!</t>
+  </si>
+  <si>
+    <t>Stayed here again on a trip from Georgia to Texas! Arrived later in the evening and was originally told we had booked 2 queens which was incorrect. Front desk clerk apologized and upgraded us to a larger king room. King bed was super comfortable! Loved the walk in shower! Will definitely be staying again and recommending to our friends and family!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Michael O, General Manager at Holiday Inn Covington Southeast, responded to this reviewResponded April 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here again on a trip from Georgia to Texas! Arrived later in the evening and was originally told we had booked 2 queens which was incorrect. Front desk clerk apologized and upgraded us to a larger king room. King bed was super comfortable! Loved the walk in shower! Will definitely be staying again and recommending to our friends and family!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r358015947-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>358015947</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Stayed here for work a few times. Very nice hotel. Another very new holiday inn. Has a bar and if you are a rewards member you get an option for a free drink at check-in. First time I've seen that.Very convenient to the restaurants in town and right off the interstate.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for work a few times. Very nice hotel. Another very new holiday inn. Has a bar and if you are a rewards member you get an option for a free drink at check-in. First time I've seen that.Very convenient to the restaurants in town and right off the interstate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r355743640-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>355743640</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Pleasant Visit</t>
+  </si>
+  <si>
+    <t>I was there seeing clients, and the hotel made a mistake on my room. When I reported it, they solved the issue immediately. Great service.Staff was very pleasant and offered great suggestions for restaurants. I will stay there again on my next business trip!MoreShow less</t>
+  </si>
+  <si>
+    <t>I was there seeing clients, and the hotel made a mistake on my room. When I reported it, they solved the issue immediately. Great service.Staff was very pleasant and offered great suggestions for restaurants. I will stay there again on my next business trip!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r353282550-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>353282550</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel, but had a problem with 'free' breakfast</t>
+  </si>
+  <si>
+    <t>Very pleasant room with wonderful beds. Spent a restful night. Very quiet. Good internet connection. However, when we checked in, the clerk told us that if we paid $1 each, we received free breakfast at the restaurant the next morning. So we paid the extra dollar. At breakfast the next morning, the wait staff told us we owed a balance on breakfast. What???? She pointed out that the $1 voucher was actually a $10 value, and we were charged over $10 each for a basic hotel buffet breakfast. We protested and the restaurant comped our breakfast. But I consider this deceptive practices by Holiday Inn. For $100 a night, you should be providing us with a free breakfast. Not cool, Holiday Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very pleasant room with wonderful beds. Spent a restful night. Very quiet. Good internet connection. However, when we checked in, the clerk told us that if we paid $1 each, we received free breakfast at the restaurant the next morning. So we paid the extra dollar. At breakfast the next morning, the wait staff told us we owed a balance on breakfast. What???? She pointed out that the $1 voucher was actually a $10 value, and we were charged over $10 each for a basic hotel buffet breakfast. We protested and the restaurant comped our breakfast. But I consider this deceptive practices by Holiday Inn. For $100 a night, you should be providing us with a free breakfast. Not cool, Holiday Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r344334971-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>344334971</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>Wow!  I'm Impressed!</t>
+  </si>
+  <si>
+    <t>I haven't stayed in a Holiday Inn in a number of years, but if this is how all the new ones are, I won't make that mistake again!  We made a reservation from the road as we decided to drive farther than we had originally planned. We arrived road-weary after 11+ hours in the car and were very pleased by the appearance of the property and the friendliness of Rachel at the front desk. Our King room was spotless and the comfortable bed was very welcome after our long day. I LOVED the bathroom!  The best lighting of any hotel in a long-time and a WALK-IN SHOWER!  I get so tired of having to climb over the side of a tub to take a shower. The only other places I've seen with walk-in showers are very high-end hotels. Great job Holiday Inn!  Another nice thing is that we were given vouchers for breakfast for just $1 more on the very reasonable room rate. And it wasn't a buffet!  It was a real order-from-the-menu breakfast. We will be putting this Holiday Inn on our list of places to stop in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>I haven't stayed in a Holiday Inn in a number of years, but if this is how all the new ones are, I won't make that mistake again!  We made a reservation from the road as we decided to drive farther than we had originally planned. We arrived road-weary after 11+ hours in the car and were very pleased by the appearance of the property and the friendliness of Rachel at the front desk. Our King room was spotless and the comfortable bed was very welcome after our long day. I LOVED the bathroom!  The best lighting of any hotel in a long-time and a WALK-IN SHOWER!  I get so tired of having to climb over the side of a tub to take a shower. The only other places I've seen with walk-in showers are very high-end hotels. Great job Holiday Inn!  Another nice thing is that we were given vouchers for breakfast for just $1 more on the very reasonable room rate. And it wasn't a buffet!  It was a real order-from-the-menu breakfast. We will be putting this Holiday Inn on our list of places to stop in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r331953554-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>331953554</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t>Very, very nice place</t>
+  </si>
+  <si>
+    <t>This is a terrific location if you are needing to stay in the area. The building is spotless and has unusually attractive décor. I have never seen another H.I. with a white, silver and grey color combo in the rooms! Nice.... I was greeted in a very friendly and professional manor and, when I needed some information about a restaurant, I was given a great location to go to.I spend about 4 nights a week at Holiday Inns across the country and this one is right at the top. I am glad I stopped here, you will be too. Very safe feeling location. Oh, and this place smells good! lolMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Michael O, General Manager at Holiday Inn Covington Southeast, responded to this reviewResponded December 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2015</t>
+  </si>
+  <si>
+    <t>This is a terrific location if you are needing to stay in the area. The building is spotless and has unusually attractive décor. I have never seen another H.I. with a white, silver and grey color combo in the rooms! Nice.... I was greeted in a very friendly and professional manor and, when I needed some information about a restaurant, I was given a great location to go to.I spend about 4 nights a week at Holiday Inns across the country and this one is right at the top. I am glad I stopped here, you will be too. Very safe feeling location. Oh, and this place smells good! lolMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r327160996-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>327160996</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>Brand new, spotless, super quiet, GREAT location!</t>
+  </si>
+  <si>
+    <t>Ideal location--right off of highway 190 and I-12--far enough from interstate and major road so there is no traffic noise at all, yet it's 1 minute away from interstate, restaurants, gas stations, etc. Many places to eat or shop (groceries) are in easy walking distance. A Wendy's and really good Chinese restaurant are steps away. Full service restaurant with full bar are located in the hotel and the food there is very good and very reasonably priced for a hotel--buffet breakfast including coffee was $7.95. Brand new hotel so beds are brand new and super comfy. Staff is incredibly nice and helpful, and housekeeping staff are to be commended for keeping hotel so clean. This location also has great rates and is superior in quality, amenities, and cleanliness to others in the area. I've stayed at a number of hotels in Covington and this one is THE BEST BY FAR!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Ideal location--right off of highway 190 and I-12--far enough from interstate and major road so there is no traffic noise at all, yet it's 1 minute away from interstate, restaurants, gas stations, etc. Many places to eat or shop (groceries) are in easy walking distance. A Wendy's and really good Chinese restaurant are steps away. Full service restaurant with full bar are located in the hotel and the food there is very good and very reasonably priced for a hotel--buffet breakfast including coffee was $7.95. Brand new hotel so beds are brand new and super comfy. Staff is incredibly nice and helpful, and housekeeping staff are to be commended for keeping hotel so clean. This location also has great rates and is superior in quality, amenities, and cleanliness to others in the area. I've stayed at a number of hotels in Covington and this one is THE BEST BY FAR!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r327144601-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>327144601</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised at this wonderful hotel</t>
+  </si>
+  <si>
+    <t>This is our second stay at this hotel and I wouldn't hesitate to stay here again. The service is outstanding, everyone has been extremely friendly and accommodating. The lobby, bar/restaurant area and rooms are clean, comfortable. We had a coffee maker, fridge, flat screen, lots of towels. We had one issue that was immediately resolved with a comp'd breakfast to boot! I highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is our second stay at this hotel and I wouldn't hesitate to stay here again. The service is outstanding, everyone has been extremely friendly and accommodating. The lobby, bar/restaurant area and rooms are clean, comfortable. We had a coffee maker, fridge, flat screen, lots of towels. We had one issue that was immediately resolved with a comp'd breakfast to boot! I highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r316169897-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>316169897</t>
+  </si>
+  <si>
+    <t>10/04/2015</t>
+  </si>
+  <si>
+    <t>One of the Best</t>
+  </si>
+  <si>
+    <t>We were traveling home and ran out of steam in Covington do we decided to spend the night in the new Hiluday Inn.  Margaret the lady at the front desk made us feel very welcome.  We went to dinner in the restarts rant and Tara the bartender/waitress was great!  She is miss personality plus.  We enjoyed our meal and will definetly be back as we travel this citified often.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Michael O, General Manager at Holiday Inn Covington Southeast, responded to this reviewResponded November 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2015</t>
+  </si>
+  <si>
+    <t>We were traveling home and ran out of steam in Covington do we decided to spend the night in the new Hiluday Inn.  Margaret the lady at the front desk made us feel very welcome.  We went to dinner in the restarts rant and Tara the bartender/waitress was great!  She is miss personality plus.  We enjoyed our meal and will definetly be back as we travel this citified often.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r314011882-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>314011882</t>
+  </si>
+  <si>
+    <t>09/27/2015</t>
+  </si>
+  <si>
+    <t>The hotel was clean and new. Staff was very inviting. Restaurant Is not up to speed. Very low on staff and food is just ok.  No coffee in the morning for guest leaving early.  Very close to all kinds of restaurants and shopping. Parking is ample and hotel is pet friendlyMoreShow less</t>
+  </si>
+  <si>
+    <t>Michael O, General Manager at Holiday Inn Covington Southeast, responded to this reviewResponded September 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2015</t>
+  </si>
+  <si>
+    <t>The hotel was clean and new. Staff was very inviting. Restaurant Is not up to speed. Very low on staff and food is just ok.  No coffee in the morning for guest leaving early.  Very close to all kinds of restaurants and shopping. Parking is ample and hotel is pet friendlyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r312831429-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>312831429</t>
+  </si>
+  <si>
+    <t>09/22/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent </t>
+  </si>
+  <si>
+    <t>This hotel was absolutely excellent. The staff was kind and helpful! The room was clean and modern the parking lot was well lit and secure. We were there for a quick overnight stay but I wish we had more time to spend there. We will definitely be looking for another holiday inn the next time we travel. MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was absolutely excellent. The staff was kind and helpful! The room was clean and modern the parking lot was well lit and secure. We were there for a quick overnight stay but I wish we had more time to spend there. We will definitely be looking for another holiday inn the next time we travel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r312212258-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>312212258</t>
+  </si>
+  <si>
+    <t>09/20/2015</t>
+  </si>
+  <si>
+    <t>Excellent Holiday Inn</t>
+  </si>
+  <si>
+    <t>New hotel with well lit parking areas.   Located convenient to interstate. Floors and carpeted areas throughout were very clean.  Smelled nice with no musty orders or heavy sprays.  Comfortable beds, nice clean bathroom, refrigerator, coffee pot, wi-fi..  There is a restaurant on site, but we wanted seafood so asked at front desk and got recommendation for an excellent seafood restaurant nearby and a coupon for a free appetizer.   Staff very pleasant and helpful.  Breakfast bar was not included with our rate, but had a nice variety of breakfast foods and was reasonably priced.  Seating arrangement  is very unusual:  bar stools seemed low so moved to table for two as there were a limited number of "regular tables" available.  All in all, a very nice hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael O, General Manager at Holiday Inn Covington Southeast, responded to this reviewResponded September 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2015</t>
+  </si>
+  <si>
+    <t>New hotel with well lit parking areas.   Located convenient to interstate. Floors and carpeted areas throughout were very clean.  Smelled nice with no musty orders or heavy sprays.  Comfortable beds, nice clean bathroom, refrigerator, coffee pot, wi-fi..  There is a restaurant on site, but we wanted seafood so asked at front desk and got recommendation for an excellent seafood restaurant nearby and a coupon for a free appetizer.   Staff very pleasant and helpful.  Breakfast bar was not included with our rate, but had a nice variety of breakfast foods and was reasonably priced.  Seating arrangement  is very unusual:  bar stools seemed low so moved to table for two as there were a limited number of "regular tables" available.  All in all, a very nice hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r312068499-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>312068499</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised!</t>
+  </si>
+  <si>
+    <t>This hotel is modern and lovely. My room was very large, clean, with a very attractive color-scheme. I liked there was a separate dining table in addition to a nice work desk with plenty of space to plug in all my technology. Even the lighting was good. Oh and the bed was comfy too! Breakfast in the restaurant was included with my room rate, and it was an order-off-the-menu meal which was delicious.I ordered room service at night and was disappointed that it was brought to my room packaged in styrofoam containers in a plastic bag. If I'm paying the automatic gratuity of 17% plus delivery charge, I expect my meal on real dishes with real utensils on a nice tray. That's my only negative in a very pleasant overall stay. Front desk even accommodated my request for a 1 hr later checkout. I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is modern and lovely. My room was very large, clean, with a very attractive color-scheme. I liked there was a separate dining table in addition to a nice work desk with plenty of space to plug in all my technology. Even the lighting was good. Oh and the bed was comfy too! Breakfast in the restaurant was included with my room rate, and it was an order-off-the-menu meal which was delicious.I ordered room service at night and was disappointed that it was brought to my room packaged in styrofoam containers in a plastic bag. If I'm paying the automatic gratuity of 17% plus delivery charge, I expect my meal on real dishes with real utensils on a nice tray. That's my only negative in a very pleasant overall stay. Front desk even accommodated my request for a 1 hr later checkout. I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r301984596-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>301984596</t>
+  </si>
+  <si>
+    <t>08/21/2015</t>
+  </si>
+  <si>
+    <t>New, fresh, good food and drink</t>
+  </si>
+  <si>
+    <t>The pillows are fresh, but thick. I bring a my own pillow for my neck issue. The baths are small but bright, mostly white with good lightening. There is no microwave probably because there is a restaurant with competant chefs. There is a good light above the coffee maker and refrigerator, which is quiet, so you can see what you are doing. There are heavy black out curtains for a dark room and healthful sleep. The a/c is clean and temperature controlled on the wall. The bath exhaust is efficient and goes on only when the light is on. The bath door opens into the bathroom so it is a bit tight in there, but the bath door, room door and closet door do not fight each other. I ate a great pasta and chicken meal at the bar! Hot, fresh and delicious! There are 2 TVs in the bar/restsurant; one has the sound on. Both should be closed caption because the refrigeration units mask the sound a bit. The only failt I found is the stickiness of the bath and restsurant floors. Ecolabs detergent is probably mopped onto the floor, but builds up a soapy, sticky film. I have found that other Holiday Inns have this same annoying problem. They should have a vinegar solution to rinse off the soap. If wet, it becomes a hazard!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Michael O, General Manager at Holiday Inn Covington Southeast, responded to this reviewResponded August 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2015</t>
+  </si>
+  <si>
+    <t>The pillows are fresh, but thick. I bring a my own pillow for my neck issue. The baths are small but bright, mostly white with good lightening. There is no microwave probably because there is a restaurant with competant chefs. There is a good light above the coffee maker and refrigerator, which is quiet, so you can see what you are doing. There are heavy black out curtains for a dark room and healthful sleep. The a/c is clean and temperature controlled on the wall. The bath exhaust is efficient and goes on only when the light is on. The bath door opens into the bathroom so it is a bit tight in there, but the bath door, room door and closet door do not fight each other. I ate a great pasta and chicken meal at the bar! Hot, fresh and delicious! There are 2 TVs in the bar/restsurant; one has the sound on. Both should be closed caption because the refrigeration units mask the sound a bit. The only failt I found is the stickiness of the bath and restsurant floors. Ecolabs detergent is probably mopped onto the floor, but builds up a soapy, sticky film. I have found that other Holiday Inns have this same annoying problem. They should have a vinegar solution to rinse off the soap. If wet, it becomes a hazard!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r298079305-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>298079305</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>Awesome hotel!!!!</t>
+  </si>
+  <si>
+    <t>I had stayed her with my husband a few months ago  and again this week. The front desk was pleasant, the rooms are still so clean and new. This is a awesome hotel with a pleasant and catering staff. They have happy hour now!!! We had our options to eat out, but they have a full restaurant that serves awesome food they make from scratch. We will be making this our designated hotel for the covington area. Was great last time and was awesome this time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael O, General Manager at Holiday Inn Covington Southeast, responded to this reviewResponded August 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2015</t>
+  </si>
+  <si>
+    <t>I had stayed her with my husband a few months ago  and again this week. The front desk was pleasant, the rooms are still so clean and new. This is a awesome hotel with a pleasant and catering staff. They have happy hour now!!! We had our options to eat out, but they have a full restaurant that serves awesome food they make from scratch. We will be making this our designated hotel for the covington area. Was great last time and was awesome this time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r297656553-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>297656553</t>
+  </si>
+  <si>
+    <t>08/10/2015</t>
+  </si>
+  <si>
+    <t>Bright and clean new hotel</t>
+  </si>
+  <si>
+    <t>This hotel has been open less than a year, and the newness shows, in a good way.  Our room was impeccably clean, with a brighter and more up-to-date feel than most Holiday Inns I have stayed at.  Even the ironing board cover was still un-torn and smooth.  We just had a one night stay and didn't use any of the hotel amenities (except the free wifi, which performed well).  But we checked in early (noon) and checked out late, no problems with either request.I don't expect my travels will bring me back to Covington any time soon, but if they did, I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel has been open less than a year, and the newness shows, in a good way.  Our room was impeccably clean, with a brighter and more up-to-date feel than most Holiday Inns I have stayed at.  Even the ironing board cover was still un-torn and smooth.  We just had a one night stay and didn't use any of the hotel amenities (except the free wifi, which performed well).  But we checked in early (noon) and checked out late, no problems with either request.I don't expect my travels will bring me back to Covington any time soon, but if they did, I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r297166244-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>297166244</t>
+  </si>
+  <si>
+    <t>08/09/2015</t>
+  </si>
+  <si>
+    <t>Really nice hotel</t>
+  </si>
+  <si>
+    <t>Stayed for two nights, check in/out was really fast. The breakfast area is like a real restaurant, very nice, rather then a small continental. At night people were hanging out at the bar, pool, and even playing board games in the lobby; it was very lively. The location is pretty nice, right next to Copeland's and many other restaurants in the Covington area. Also, either we were lucky or they really sound proof there walls as I never heard anyone else when we were in our rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed for two nights, check in/out was really fast. The breakfast area is like a real restaurant, very nice, rather then a small continental. At night people were hanging out at the bar, pool, and even playing board games in the lobby; it was very lively. The location is pretty nice, right next to Copeland's and many other restaurants in the Covington area. Also, either we were lucky or they really sound proof there walls as I never heard anyone else when we were in our rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r296901606-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>296901606</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t>What a nice hotel!!</t>
+  </si>
+  <si>
+    <t>Friendly staff ...Lacy was great and gave excellent suggestions. She suggested a great  local breakfast place called LA Lou !The room was set up very well from the decor, and comfy bed! We will be back!! Close to New Orleans by car only 30-40 minutes.MoreShow less</t>
+  </si>
+  <si>
+    <t>Friendly staff ...Lacy was great and gave excellent suggestions. She suggested a great  local breakfast place called LA Lou !The room was set up very well from the decor, and comfy bed! We will be back!! Close to New Orleans by car only 30-40 minutes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r296689451-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>296689451</t>
+  </si>
+  <si>
+    <t>08/07/2015</t>
+  </si>
+  <si>
+    <t>Wonderful Staff, Clean Rooms</t>
+  </si>
+  <si>
+    <t>My family and I stayed here while visiting family in the area. From the moment we arrived the front desk staff was pleasant and accommodating. We were checked-in quickly and able to get to our room with ease. The room was spacious and impeccably clean. I want to thank the management and staff for a wonderful stay, my family and I will happily stay here during future visits.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>My family and I stayed here while visiting family in the area. From the moment we arrived the front desk staff was pleasant and accommodating. We were checked-in quickly and able to get to our room with ease. The room was spacious and impeccably clean. I want to thank the management and staff for a wonderful stay, my family and I will happily stay here during future visits.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r292796684-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>292796684</t>
+  </si>
+  <si>
+    <t>07/26/2015</t>
+  </si>
+  <si>
+    <t>Wonderful Stay!</t>
+  </si>
+  <si>
+    <t>This is a new place with great furnishings! Ideal location with a full bar and restaurant. The front desk couldn't have been more pleasant and helpful. The beds were probably the best I've had in a chain such as Holiday Inn. Very clean. Had a wonderful stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael O, General Manager at Holiday Inn Covington Southeast, responded to this reviewResponded August 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2015</t>
+  </si>
+  <si>
+    <t>This is a new place with great furnishings! Ideal location with a full bar and restaurant. The front desk couldn't have been more pleasant and helpful. The beds were probably the best I've had in a chain such as Holiday Inn. Very clean. Had a wonderful stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r292179278-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>292179278</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t>Super delux everything in room</t>
+  </si>
+  <si>
+    <t>This is a fairly new hotel.  The room had all modern conveniences including multiple outlets even in the base of the lamps. Beds and pillows are super comfy, very nice and cheery decor in the room and throughout the hotel. The only issue I had was that breakfast was not included. The breakfast bar is $7.99 and a small thermos of coffee $2.25 (Prices stated may vary by a few cents).MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a fairly new hotel.  The room had all modern conveniences including multiple outlets even in the base of the lamps. Beds and pillows are super comfy, very nice and cheery decor in the room and throughout the hotel. The only issue I had was that breakfast was not included. The breakfast bar is $7.99 and a small thermos of coffee $2.25 (Prices stated may vary by a few cents).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r290172652-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>290172652</t>
+  </si>
+  <si>
+    <t>07/18/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice and newer but smaller rooms. </t>
+  </si>
+  <si>
+    <t>We stopped here on our way to Destin FL. First, this is a newer hotel and staff is very tentative. There are plenty of places to eat around which I would recommend Acme Oyster Co. The down side to us was the room size. Of course we only stated one night so no big deal. Also as others have mentioned the pool and gym are pretty small. I would stay again if passing through. Easy I-10 access. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stopped here on our way to Destin FL. First, this is a newer hotel and staff is very tentative. There are plenty of places to eat around which I would recommend Acme Oyster Co. The down side to us was the room size. Of course we only stated one night so no big deal. Also as others have mentioned the pool and gym are pretty small. I would stay again if passing through. Easy I-10 access. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r285522835-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>285522835</t>
+  </si>
+  <si>
+    <t>07/04/2015</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>This is a new hotel with bright crisp colors, clean rooms and a great staff! We had reservations at the Holiday Inn in Slidell, LA but after a bad check-in experience and a room that was not up to usual IHG standards we left that property for this one. When we arrived we were pleasantly surprised to find Margaret working the front desk. Margaret had been one of our favorite people at the Baton Rouge Holiday Inn we stay at during football season! She got us in quickly and made sure we were far away from the large group of teens that were staying at the hotel for a sports tournament. Jamie and Tara were also extremely helpful. We would recommend this property and stay here again when in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Michael O, General Manager at Holiday Inn Covington Southeast, responded to this reviewResponded July 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2015</t>
+  </si>
+  <si>
+    <t>This is a new hotel with bright crisp colors, clean rooms and a great staff! We had reservations at the Holiday Inn in Slidell, LA but after a bad check-in experience and a room that was not up to usual IHG standards we left that property for this one. When we arrived we were pleasantly surprised to find Margaret working the front desk. Margaret had been one of our favorite people at the Baton Rouge Holiday Inn we stay at during football season! She got us in quickly and made sure we were far away from the large group of teens that were staying at the hotel for a sports tournament. Jamie and Tara were also extremely helpful. We would recommend this property and stay here again when in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r279903374-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>279903374</t>
+  </si>
+  <si>
+    <t>06/13/2015</t>
+  </si>
+  <si>
+    <t>Holiday Inn hotel in the suburbs</t>
+  </si>
+  <si>
+    <t>We travel the interstate often and usually stay at Holiday Inn Express; this one was a hotel off I 12. We like the consistently comfortable beds and pillows of Holiday Inns. The room was immaculate and the entire hotel was very clean. The lobby had a couple of sitting areas with big screen TVs. The hotel restaurant/bar was sparsely attended. The food was adequate for traveling, but certainly not a destination restaurant (there are many nearby, but this was sufficient if you just  wanted to stay in and rest). There was a gym, small outdoor pool, and a business center. Overall, I think this was a good hotel for business travelers. The lobby needs free brewed coffee (the room coffee was "tea-bag" style). Handicap accessible.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael O, General Manager at Holiday Inn Covington Southeast, responded to this reviewResponded June 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2015</t>
+  </si>
+  <si>
+    <t>We travel the interstate often and usually stay at Holiday Inn Express; this one was a hotel off I 12. We like the consistently comfortable beds and pillows of Holiday Inns. The room was immaculate and the entire hotel was very clean. The lobby had a couple of sitting areas with big screen TVs. The hotel restaurant/bar was sparsely attended. The food was adequate for traveling, but certainly not a destination restaurant (there are many nearby, but this was sufficient if you just  wanted to stay in and rest). There was a gym, small outdoor pool, and a business center. Overall, I think this was a good hotel for business travelers. The lobby needs free brewed coffee (the room coffee was "tea-bag" style). Handicap accessible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r278367334-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>278367334</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>Beautiful</t>
+  </si>
+  <si>
+    <t>Check in was quick and easy as I had booked in advance and the staff was very courteous and attentive.  Room very clean and well stocked.  Ice machine on our floor was out of service and the pool is pretty to look at but small.  Overall great experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>Check in was quick and easy as I had booked in advance and the staff was very courteous and attentive.  Room very clean and well stocked.  Ice machine on our floor was out of service and the pool is pretty to look at but small.  Overall great experience!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r276575404-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>276575404</t>
+  </si>
+  <si>
+    <t>06/01/2015</t>
+  </si>
+  <si>
+    <t>Wonderful visit!</t>
+  </si>
+  <si>
+    <t>The front desk staff (Lacey &amp; Margaret) was attentive, at times they even anticipated our needs. The restaurant staff was great especially Tara she was approachable and friendly. The food was very good. The pool is beautiful. The fitness area is well equipped. Great stay!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>The front desk staff (Lacey &amp; Margaret) was attentive, at times they even anticipated our needs. The restaurant staff was great especially Tara she was approachable and friendly. The food was very good. The pool is beautiful. The fitness area is well equipped. Great stay!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r276574855-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>276574855</t>
+  </si>
+  <si>
+    <t>AWESOME!!</t>
+  </si>
+  <si>
+    <t>Upon arrival we was greeted with such a wonderful smile and attitude from the front desk. Everything was set and ready to go. The family came here for a swim meet in New Orleans so we decided to choose this hotel (The drive isn't bad). We stayed for 4 days and the staff, food, and room was GREAT!! This hotel will be the "go to" hotel when we come to Covington. :-) MoreShow less</t>
+  </si>
+  <si>
+    <t>Upon arrival we was greeted with such a wonderful smile and attitude from the front desk. Everything was set and ready to go. The family came here for a swim meet in New Orleans so we decided to choose this hotel (The drive isn't bad). We stayed for 4 days and the staff, food, and room was GREAT!! This hotel will be the "go to" hotel when we come to Covington. :-) More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r273782678-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>273782678</t>
+  </si>
+  <si>
+    <t>05/22/2015</t>
+  </si>
+  <si>
+    <t>Clean Hotel</t>
+  </si>
+  <si>
+    <t>This Hotel was very clean and the rooms were a little above average size.The walls and ceilings are a little thin as we could hear a lot of noise and heavy feet above us.The pool deck and patio was nice but small.Friendly staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>This Hotel was very clean and the rooms were a little above average size.The walls and ceilings are a little thin as we could hear a lot of noise and heavy feet above us.The pool deck and patio was nice but small.Friendly staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r273433084-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>273433084</t>
+  </si>
+  <si>
+    <t>05/20/2015</t>
+  </si>
+  <si>
+    <t>Big rooms and friendly staff</t>
+  </si>
+  <si>
+    <t>We stayed here for three nights.  We have 3 kids, so we asked for adjoining rooms and we were able to have them secured before we arrive. (interesting this is more difficult than you think at hotels)  The staff was very nice and attentive.  The rooms were very big.  The pool is smaller, but nice features with waterfalls.  They have a fire pit which was nice to sit around at night.  Many great restaurants around the hotel to visit.  This was a great stay, no problems.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for three nights.  We have 3 kids, so we asked for adjoining rooms and we were able to have them secured before we arrive. (interesting this is more difficult than you think at hotels)  The staff was very nice and attentive.  The rooms were very big.  The pool is smaller, but nice features with waterfalls.  They have a fire pit which was nice to sit around at night.  Many great restaurants around the hotel to visit.  This was a great stay, no problems.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r270260072-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>270260072</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>Convenient access to Interstate</t>
+  </si>
+  <si>
+    <t>Stayed one night in April.  Convenient access to Interstate.  Hotel seemed brand new inside.  Bed very comfortable, room very nice, large TV.  The only downside was the restaurant.  Asked for menu item with chicken but was told chicken was still "thawing."  Got a burger and fries instead.  Fries were good but burger marginal (color off)--so maybe it had been frozen, too.  Waitress was nice and capable but had her hands full waiting on all the people in the restaurant at that time (evening).  Would stay again if in the area.  Carpet in hallways very "loud"--could stand to be toned down.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Michael O, General Manager at Holiday Inn Covington Southeast, responded to this reviewResponded May 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2015</t>
+  </si>
+  <si>
+    <t>Stayed one night in April.  Convenient access to Interstate.  Hotel seemed brand new inside.  Bed very comfortable, room very nice, large TV.  The only downside was the restaurant.  Asked for menu item with chicken but was told chicken was still "thawing."  Got a burger and fries instead.  Fries were good but burger marginal (color off)--so maybe it had been frozen, too.  Waitress was nice and capable but had her hands full waiting on all the people in the restaurant at that time (evening).  Would stay again if in the area.  Carpet in hallways very "loud"--could stand to be toned down.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r267084556-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>267084556</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel with Friendly Staff</t>
+  </si>
+  <si>
+    <t>My Husband and I stayed 5 nights at this beautiful hotel and enjoyed every one of them. The rooms were clean and comfortable. Most of all I want to give the staff a thumbs up from Mike and Dave (Managers) to Jamie (front desk clerk) and Misty (housekeeping). You guys are great. Thanks for making us feel like you really appreciated our business. We will be back to see you if we ever get your way again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael O, General Manager at Holiday Inn Covington Southeast, responded to this reviewResponded April 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2015</t>
+  </si>
+  <si>
+    <t>My Husband and I stayed 5 nights at this beautiful hotel and enjoyed every one of them. The rooms were clean and comfortable. Most of all I want to give the staff a thumbs up from Mike and Dave (Managers) to Jamie (front desk clerk) and Misty (housekeeping). You guys are great. Thanks for making us feel like you really appreciated our business. We will be back to see you if we ever get your way again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r266043151-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>266043151</t>
+  </si>
+  <si>
+    <t>04/16/2015</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>Stayed here on a business trip recently and had one of the best experiences ever in a Holiday Inn.  This hotel is located conveniently off of I-12 and far enough away from heavy traffic that if you are worried about traffic noise this will not be a problem. Check in was so smooth and I apologize for not getting the name of the attendant but she was so nice and helpful that her company should try to keep her no matter what.  Exercise room had good equipment but was a bit on the warm side.  As for my room the king bed was so comfortable it was hard to leave it come time to get up. Would recommend this hotel to anyone wanting a clean comfortable affordable place whether for business or pleasure.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael O, General Manager at Holiday Inn Covington Southeast, responded to this reviewResponded April 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here on a business trip recently and had one of the best experiences ever in a Holiday Inn.  This hotel is located conveniently off of I-12 and far enough away from heavy traffic that if you are worried about traffic noise this will not be a problem. Check in was so smooth and I apologize for not getting the name of the attendant but she was so nice and helpful that her company should try to keep her no matter what.  Exercise room had good equipment but was a bit on the warm side.  As for my room the king bed was so comfortable it was hard to leave it come time to get up. Would recommend this hotel to anyone wanting a clean comfortable affordable place whether for business or pleasure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r258812359-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>258812359</t>
+  </si>
+  <si>
+    <t>03/10/2015</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights and could not have been more pleased with the room and the amenities.  We used the gym one morning and found everything to be in great condition.  The staff was very, very pleasant.  We didn't try the restaurant but the food smelled really good... especially the bacon at breakfast.  The free internet (when you're a member of their club) is really fast.  Great setup in the room for a work station.  Tons of places to plug in items that need to be charged.  We would stay here again in a heartbeat!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Michael O, General Manager at Holiday Inn Covington Southeast, responded to this reviewResponded March 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights and could not have been more pleased with the room and the amenities.  We used the gym one morning and found everything to be in great condition.  The staff was very, very pleasant.  We didn't try the restaurant but the food smelled really good... especially the bacon at breakfast.  The free internet (when you're a member of their club) is really fast.  Great setup in the room for a work station.  Tons of places to plug in items that need to be charged.  We would stay here again in a heartbeat!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r256057656-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>256057656</t>
+  </si>
+  <si>
+    <t>02/23/2015</t>
+  </si>
+  <si>
+    <t>Better Than Most "Big Name" Hotels</t>
+  </si>
+  <si>
+    <t>What are pleasant surprise.  My wife and I booked this hotel for Mardi Gras as most of the hotels in the French Quarter we're all booked up.  The drive across Lake Pontchartrain is not for the faint of heart, but this lovely hotel was  made up for it.  The room we stayed in was huge, the hotel staff was very friendly, and the room service was even nice.  We don't usually stay in Holiday Inn properties but this particular hotel was very nice.One little gem is the Broken Egg Cafe is only about 15 minutes away from this hotel.  A must visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Michael O, General Manager at Holiday Inn Covington Southeast, responded to this reviewResponded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2015</t>
+  </si>
+  <si>
+    <t>What are pleasant surprise.  My wife and I booked this hotel for Mardi Gras as most of the hotels in the French Quarter we're all booked up.  The drive across Lake Pontchartrain is not for the faint of heart, but this lovely hotel was  made up for it.  The room we stayed in was huge, the hotel staff was very friendly, and the room service was even nice.  We don't usually stay in Holiday Inn properties but this particular hotel was very nice.One little gem is the Broken Egg Cafe is only about 15 minutes away from this hotel.  A must visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r244887485-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>244887485</t>
+  </si>
+  <si>
+    <t>12/17/2014</t>
+  </si>
+  <si>
+    <t>Stunning and Great Services!!!!</t>
+  </si>
+  <si>
+    <t>I've stayed at this beautiful hotel. My  husband and I were amazed by the friendly staff, clean rooms and great restaurant. Great breakfast. Try the All American Skillet, IT'S FANTASTIC!!! I enjoyed the beer batter onion rings and cajun pasta!!! The location is perfect, especially if you're traveling to New Orleans. The rooms are fantastic and the beds are so comfortable.I will be back. I stayed at many hotels, I am impress!  I would recommend this hotel to everyone..MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>I've stayed at this beautiful hotel. My  husband and I were amazed by the friendly staff, clean rooms and great restaurant. Great breakfast. Try the All American Skillet, IT'S FANTASTIC!!! I enjoyed the beer batter onion rings and cajun pasta!!! The location is perfect, especially if you're traveling to New Orleans. The rooms are fantastic and the beds are so comfortable.I will be back. I stayed at many hotels, I am impress!  I would recommend this hotel to everyone..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r244181659-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>244181659</t>
+  </si>
+  <si>
+    <t>12/12/2014</t>
+  </si>
+  <si>
+    <t>Amazing</t>
+  </si>
+  <si>
+    <t>Hands down the single best hotel stay I've ever had. Everything is perfect! They go above and beyond in every way. All the staff is amazingly friendly and helpful. The food in their restaurant was delicious. We will be returning!MoreShow less</t>
+  </si>
+  <si>
+    <t>Hands down the single best hotel stay I've ever had. Everything is perfect! They go above and beyond in every way. All the staff is amazingly friendly and helpful. The food in their restaurant was delicious. We will be returning!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r244176312-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>244176312</t>
+  </si>
+  <si>
+    <t>Beautiful lovely great service</t>
+  </si>
+  <si>
+    <t>Friendly staff ,clean rooms,wonderful place to stay excellent service.good food ,I will be back and we tell everyone about what a wonderful experience and service .  it is a great place and family place.staff is womderful in hotel and restarunt thanks Carrie belkMoreShow less</t>
+  </si>
+  <si>
+    <t>Friendly staff ,clean rooms,wonderful place to stay excellent service.good food ,I will be back and we tell everyone about what a wonderful experience and service .  it is a great place and family place.staff is womderful in hotel and restarunt thanks Carrie belkMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r244046631-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>244046631</t>
+  </si>
+  <si>
+    <t>12/11/2014</t>
+  </si>
+  <si>
+    <t>Amazing hotel!!</t>
+  </si>
+  <si>
+    <t>I stayed here for only 2 days while attending a wedding however I wish we had been able to stay longer! Beautiful rooms, amazing restaurant, and the fire pit out back of the hotel is perfect to sit by and have a drink! When I come back I hope the bar is open. I think they were waiting on some paperwork since they just opened like a month ago. Great staff and very clean.. Absolutely will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for only 2 days while attending a wedding however I wish we had been able to stay longer! Beautiful rooms, amazing restaurant, and the fire pit out back of the hotel is perfect to sit by and have a drink! When I come back I hope the bar is open. I think they were waiting on some paperwork since they just opened like a month ago. Great staff and very clean.. Absolutely will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r240899980-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>240899980</t>
+  </si>
+  <si>
+    <t>11/21/2014</t>
+  </si>
+  <si>
+    <t>Holiday Inn Covington Southeast</t>
+  </si>
+  <si>
+    <t>we stayed at the Holiday Inn Covington LA; OnNovember 9th thru 11.brand  It ful inni is a beautiful Inn , brand new and beautiful.  The rooms were clean and we had everthing we needed.  We ate morningat the resturant the first night and next morning .  The food was deliciciois but we wanted to have the true Louisisana food aseever have had it.  The dinning staff were very friendly  and effficient.  We met the manager who was avery nice man.  Butthe asst manager David Bloom went above and beyond the call of duty.  When we came in the first evening he talked to us and asked us where we wereoing the next day.  We asked him the best way to  get there we are older and we guess he took us under his wing.  He said he would printt out direction for us so that wouldnt have any problems the next day.  Whrn weeturned  the next day he would  ask if we had any problems and if we enjoyed it.  You could tell he loved  his job and and where he was working .  We would talk to him each evening and he would give us a history lesson on New Orleans.  He^s very proud of New Orleans and we enjoyed his company tremendously. Before weent to our rooms each night he would ask us where we were going the next day.  He would make suggestion and give us the...we stayed at the Holiday Inn Covington LA; OnNovember 9th thru 11.brand  It ful inni is a beautiful Inn , brand new and beautiful.  The rooms were clean and we had everthing we needed.  We ate morningat the resturant the first night and next morning .  The food was deliciciois but we wanted to have the true Louisisana food aseever have had it.  The dinning staff were very friendly  and effficient.  We met the manager who was avery nice man.  Butthe asst manager David Bloom went above and beyond the call of duty.  When we came in the first evening he talked to us and asked us where we wereoing the next day.  We asked him the best way to  get there we are older and we guess he took us under his wing.  He said he would printt out direction for us so that wouldnt have any problems the next day.  Whrn weeturned  the next day he would  ask if we had any problems and if we enjoyed it.  You could tell he loved  his job and and where he was working .  We would talk to him each evening and he would give us a history lesson on New Orleans.  He^s very proud of New Orleans and we enjoyed his company tremendously. Before weent to our rooms each night he would ask us where we were going the next day.  He would make suggestion and give us the directions.  Needless to say we had aounderful stay at te Holiday Innand would go there again in a heart beat.  David made our trip much more enjoyable with his suggestions and help.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Michael O, Front Office Manager at Holiday Inn Covington Southeast, responded to this reviewResponded March 12, 2015</t>
+  </si>
+  <si>
+    <t>we stayed at the Holiday Inn Covington LA; OnNovember 9th thru 11.brand  It ful inni is a beautiful Inn , brand new and beautiful.  The rooms were clean and we had everthing we needed.  We ate morningat the resturant the first night and next morning .  The food was deliciciois but we wanted to have the true Louisisana food aseever have had it.  The dinning staff were very friendly  and effficient.  We met the manager who was avery nice man.  Butthe asst manager David Bloom went above and beyond the call of duty.  When we came in the first evening he talked to us and asked us where we wereoing the next day.  We asked him the best way to  get there we are older and we guess he took us under his wing.  He said he would printt out direction for us so that wouldnt have any problems the next day.  Whrn weeturned  the next day he would  ask if we had any problems and if we enjoyed it.  You could tell he loved  his job and and where he was working .  We would talk to him each evening and he would give us a history lesson on New Orleans.  He^s very proud of New Orleans and we enjoyed his company tremendously. Before weent to our rooms each night he would ask us where we were going the next day.  He would make suggestion and give us the...we stayed at the Holiday Inn Covington LA; OnNovember 9th thru 11.brand  It ful inni is a beautiful Inn , brand new and beautiful.  The rooms were clean and we had everthing we needed.  We ate morningat the resturant the first night and next morning .  The food was deliciciois but we wanted to have the true Louisisana food aseever have had it.  The dinning staff were very friendly  and effficient.  We met the manager who was avery nice man.  Butthe asst manager David Bloom went above and beyond the call of duty.  When we came in the first evening he talked to us and asked us where we wereoing the next day.  We asked him the best way to  get there we are older and we guess he took us under his wing.  He said he would printt out direction for us so that wouldnt have any problems the next day.  Whrn weeturned  the next day he would  ask if we had any problems and if we enjoyed it.  You could tell he loved  his job and and where he was working .  We would talk to him each evening and he would give us a history lesson on New Orleans.  He^s very proud of New Orleans and we enjoyed his company tremendously. Before weent to our rooms each night he would ask us where we were going the next day.  He would make suggestion and give us the directions.  Needless to say we had aounderful stay at te Holiday Innand would go there again in a heart beat.  David made our trip much more enjoyable with his suggestions and help.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r238133061-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>238133061</t>
+  </si>
+  <si>
+    <t>11/04/2014</t>
+  </si>
+  <si>
+    <t>Nice Stay in Covington</t>
+  </si>
+  <si>
+    <t>As with the other reviews, I stayed here within a week of its opening for business.  I wanted to give it a higher rating, but the bar and breakfast areas were not open and I couldn't rate them.  However, our stay was just fine.  Brand new everything, comfy bed, spacious rooms, good Internet and a location just off the main causeway highway that makes getting there easy from New Orleans.Minor problems were lack of microwave in the room, although a refrigerator and coffee maker were supplied.  Rooms at the front facing the parking lot might hear the music from the outside speakers that were installed above the front entrance.  Overall would recommend and stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>As with the other reviews, I stayed here within a week of its opening for business.  I wanted to give it a higher rating, but the bar and breakfast areas were not open and I couldn't rate them.  However, our stay was just fine.  Brand new everything, comfy bed, spacious rooms, good Internet and a location just off the main causeway highway that makes getting there easy from New Orleans.Minor problems were lack of microwave in the room, although a refrigerator and coffee maker were supplied.  Rooms at the front facing the parking lot might hear the music from the outside speakers that were installed above the front entrance.  Overall would recommend and stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r237804869-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>237804869</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>Spent the night here, you can tell this place is brand new everything about this place was nice.  All modern looking furniture and LED lighting really sets it apart.  The parking lot is very well lit at night felt very safe walking to and from my car.  After check out I stayed for lunch at the in house restaurant, great food.  Highly recommendedMoreShow less</t>
+  </si>
+  <si>
+    <t>Spent the night here, you can tell this place is brand new everything about this place was nice.  All modern looking furniture and LED lighting really sets it apart.  The parking lot is very well lit at night felt very safe walking to and from my car.  After check out I stayed for lunch at the in house restaurant, great food.  Highly recommendedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r237389629-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>237389629</t>
+  </si>
+  <si>
+    <t>11/01/2014</t>
+  </si>
+  <si>
+    <t>New Hotel - Good Experience</t>
+  </si>
+  <si>
+    <t>Brand new hotel - opened two days before my stay. Still had the fresh paint smell. Overall the experience was very good. Clean room, great beds, good layout. I was a little disappointed that the bar was not open as they were still waiting on their liquor license. I would probably stay at this property again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Brand new hotel - opened two days before my stay. Still had the fresh paint smell. Overall the experience was very good. Clean room, great beds, good layout. I was a little disappointed that the bar was not open as they were still waiting on their liquor license. I would probably stay at this property again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40095-d6956319-r237323266-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
+  </si>
+  <si>
+    <t>237323266</t>
+  </si>
+  <si>
+    <t>10/31/2014</t>
+  </si>
+  <si>
+    <t>Spider In Room</t>
+  </si>
+  <si>
+    <t>Booked this hotel online because it was brand new,the hotel itself is quite nice the rooms are standard holiday inn decor. Though we did not stay the night due to my wife finding a relatively large spider in the room. As I'm a platinum elite member I called the property to see if they could upgrade me. After my wife finds the spider we are then downgraded to a smaller room. I'm quite surprised by the customer service of this hotel as it seems to be nonexistent.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael O, General Manager at Holiday Inn Covington Southeast, responded to this reviewResponded November 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2014</t>
+  </si>
+  <si>
+    <t>Booked this hotel online because it was brand new,the hotel itself is quite nice the rooms are standard holiday inn decor. Though we did not stay the night due to my wife finding a relatively large spider in the room. As I'm a platinum elite member I called the property to see if they could upgrade me. After my wife finds the spider we are then downgraded to a smaller room. I'm quite surprised by the customer service of this hotel as it seems to be nonexistent.More</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
@@ -130,9 +2143,6 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g40095-d6956319-Reviews-Holiday_Inn_Covington_Southeast-Covington_Louisiana.html</t>
-  </si>
-  <si>
-    <t>Holiday Inn Covington Southeast</t>
   </si>
   <si>
     <t>87</t>
@@ -561,6 +2571,6007 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>70</v>
+      </c>
+      <c r="X7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>78</v>
+      </c>
+      <c r="X8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>87</v>
+      </c>
+      <c r="X9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>97</v>
+      </c>
+      <c r="X10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L12" t="s">
+        <v>110</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>111</v>
+      </c>
+      <c r="O12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>112</v>
+      </c>
+      <c r="X12" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" t="s">
+        <v>120</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>121</v>
+      </c>
+      <c r="X13" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>111</v>
+      </c>
+      <c r="O14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" t="s">
+        <v>120</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>135</v>
+      </c>
+      <c r="O16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>141</v>
+      </c>
+      <c r="X16" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>149</v>
+      </c>
+      <c r="O18" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>155</v>
+      </c>
+      <c r="X18" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" t="s">
+        <v>161</v>
+      </c>
+      <c r="L19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>149</v>
+      </c>
+      <c r="O19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" t="s">
+        <v>167</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>168</v>
+      </c>
+      <c r="O20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>169</v>
+      </c>
+      <c r="X20" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" t="s">
+        <v>176</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>168</v>
+      </c>
+      <c r="O21" t="s">
+        <v>177</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J22" t="s">
+        <v>181</v>
+      </c>
+      <c r="K22" t="s">
+        <v>182</v>
+      </c>
+      <c r="L22" t="s">
+        <v>183</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>184</v>
+      </c>
+      <c r="O22" t="s">
+        <v>120</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>185</v>
+      </c>
+      <c r="X22" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" t="s">
+        <v>181</v>
+      </c>
+      <c r="K23" t="s">
+        <v>190</v>
+      </c>
+      <c r="L23" t="s">
+        <v>191</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>168</v>
+      </c>
+      <c r="O23" t="s">
+        <v>96</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>185</v>
+      </c>
+      <c r="X23" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>194</v>
+      </c>
+      <c r="J24" t="s">
+        <v>195</v>
+      </c>
+      <c r="K24" t="s">
+        <v>196</v>
+      </c>
+      <c r="L24" t="s">
+        <v>197</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>168</v>
+      </c>
+      <c r="O24" t="s">
+        <v>34</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>198</v>
+      </c>
+      <c r="X24" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>202</v>
+      </c>
+      <c r="J25" t="s">
+        <v>203</v>
+      </c>
+      <c r="K25" t="s">
+        <v>204</v>
+      </c>
+      <c r="L25" t="s">
+        <v>205</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>206</v>
+      </c>
+      <c r="X25" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>210</v>
+      </c>
+      <c r="J26" t="s">
+        <v>211</v>
+      </c>
+      <c r="K26" t="s">
+        <v>212</v>
+      </c>
+      <c r="L26" t="s">
+        <v>213</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>214</v>
+      </c>
+      <c r="O26" t="s">
+        <v>46</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>206</v>
+      </c>
+      <c r="X26" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>217</v>
+      </c>
+      <c r="J27" t="s">
+        <v>218</v>
+      </c>
+      <c r="K27" t="s">
+        <v>219</v>
+      </c>
+      <c r="L27" t="s">
+        <v>220</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>214</v>
+      </c>
+      <c r="O27" t="s">
+        <v>46</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>206</v>
+      </c>
+      <c r="X27" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>223</v>
+      </c>
+      <c r="J28" t="s">
+        <v>224</v>
+      </c>
+      <c r="K28" t="s">
+        <v>225</v>
+      </c>
+      <c r="L28" t="s">
+        <v>226</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>184</v>
+      </c>
+      <c r="O28" t="s">
+        <v>120</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>206</v>
+      </c>
+      <c r="X28" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>228</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>229</v>
+      </c>
+      <c r="J29" t="s">
+        <v>230</v>
+      </c>
+      <c r="K29" t="s">
+        <v>231</v>
+      </c>
+      <c r="L29" t="s">
+        <v>232</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>233</v>
+      </c>
+      <c r="O29" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>234</v>
+      </c>
+      <c r="X29" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>237</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>238</v>
+      </c>
+      <c r="J30" t="s">
+        <v>239</v>
+      </c>
+      <c r="K30" t="s">
+        <v>240</v>
+      </c>
+      <c r="L30" t="s">
+        <v>241</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>233</v>
+      </c>
+      <c r="O30" t="s">
+        <v>46</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>234</v>
+      </c>
+      <c r="X30" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>243</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>244</v>
+      </c>
+      <c r="J31" t="s">
+        <v>245</v>
+      </c>
+      <c r="K31" t="s">
+        <v>246</v>
+      </c>
+      <c r="L31" t="s">
+        <v>247</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>233</v>
+      </c>
+      <c r="O31" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>234</v>
+      </c>
+      <c r="X31" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>249</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>250</v>
+      </c>
+      <c r="J32" t="s">
+        <v>251</v>
+      </c>
+      <c r="K32" t="s">
+        <v>252</v>
+      </c>
+      <c r="L32" t="s">
+        <v>253</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>254</v>
+      </c>
+      <c r="O32" t="s">
+        <v>34</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>234</v>
+      </c>
+      <c r="X32" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>256</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>257</v>
+      </c>
+      <c r="J33" t="s">
+        <v>258</v>
+      </c>
+      <c r="K33" t="s">
+        <v>259</v>
+      </c>
+      <c r="L33" t="s">
+        <v>260</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>261</v>
+      </c>
+      <c r="O33" t="s">
+        <v>46</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>262</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>263</v>
+      </c>
+      <c r="J34" t="s">
+        <v>264</v>
+      </c>
+      <c r="K34" t="s">
+        <v>265</v>
+      </c>
+      <c r="L34" t="s">
+        <v>266</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>261</v>
+      </c>
+      <c r="O34" t="s">
+        <v>46</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>234</v>
+      </c>
+      <c r="X34" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>268</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>269</v>
+      </c>
+      <c r="J35" t="s">
+        <v>270</v>
+      </c>
+      <c r="K35" t="s">
+        <v>271</v>
+      </c>
+      <c r="L35" t="s">
+        <v>272</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>261</v>
+      </c>
+      <c r="O35" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>234</v>
+      </c>
+      <c r="X35" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>274</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>275</v>
+      </c>
+      <c r="J36" t="s">
+        <v>276</v>
+      </c>
+      <c r="K36" t="s">
+        <v>277</v>
+      </c>
+      <c r="L36" t="s">
+        <v>278</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>279</v>
+      </c>
+      <c r="O36" t="s">
+        <v>46</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>280</v>
+      </c>
+      <c r="X36" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>283</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>284</v>
+      </c>
+      <c r="J37" t="s">
+        <v>285</v>
+      </c>
+      <c r="K37" t="s">
+        <v>286</v>
+      </c>
+      <c r="L37" t="s">
+        <v>287</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>288</v>
+      </c>
+      <c r="O37" t="s">
+        <v>120</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>280</v>
+      </c>
+      <c r="X37" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>290</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>291</v>
+      </c>
+      <c r="J38" t="s">
+        <v>292</v>
+      </c>
+      <c r="K38" t="s">
+        <v>293</v>
+      </c>
+      <c r="L38" t="s">
+        <v>294</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>288</v>
+      </c>
+      <c r="O38" t="s">
+        <v>120</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>280</v>
+      </c>
+      <c r="X38" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>296</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>297</v>
+      </c>
+      <c r="J39" t="s">
+        <v>298</v>
+      </c>
+      <c r="K39" t="s">
+        <v>299</v>
+      </c>
+      <c r="L39" t="s">
+        <v>300</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>301</v>
+      </c>
+      <c r="O39" t="s">
+        <v>34</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>302</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>303</v>
+      </c>
+      <c r="J40" t="s">
+        <v>304</v>
+      </c>
+      <c r="K40" t="s">
+        <v>305</v>
+      </c>
+      <c r="L40" t="s">
+        <v>306</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>301</v>
+      </c>
+      <c r="O40" t="s">
+        <v>46</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>307</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>308</v>
+      </c>
+      <c r="J41" t="s">
+        <v>309</v>
+      </c>
+      <c r="K41" t="s">
+        <v>310</v>
+      </c>
+      <c r="L41" t="s">
+        <v>311</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>301</v>
+      </c>
+      <c r="O41" t="s">
+        <v>46</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>312</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>313</v>
+      </c>
+      <c r="J42" t="s">
+        <v>309</v>
+      </c>
+      <c r="K42" t="s">
+        <v>314</v>
+      </c>
+      <c r="L42" t="s">
+        <v>315</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>301</v>
+      </c>
+      <c r="O42" t="s">
+        <v>96</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>316</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>317</v>
+      </c>
+      <c r="J43" t="s">
+        <v>318</v>
+      </c>
+      <c r="K43" t="s">
+        <v>319</v>
+      </c>
+      <c r="L43" t="s">
+        <v>320</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>321</v>
+      </c>
+      <c r="O43" t="s">
+        <v>46</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>322</v>
+      </c>
+      <c r="X43" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>325</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s">
+        <v>326</v>
+      </c>
+      <c r="J44" t="s">
+        <v>327</v>
+      </c>
+      <c r="K44" t="s">
+        <v>328</v>
+      </c>
+      <c r="L44" t="s">
+        <v>329</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>279</v>
+      </c>
+      <c r="O44" t="s">
+        <v>34</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>280</v>
+      </c>
+      <c r="X44" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>331</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>332</v>
+      </c>
+      <c r="J45" t="s">
+        <v>333</v>
+      </c>
+      <c r="K45" t="s">
+        <v>334</v>
+      </c>
+      <c r="L45" t="s">
+        <v>335</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>279</v>
+      </c>
+      <c r="O45" t="s">
+        <v>46</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>280</v>
+      </c>
+      <c r="X45" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>337</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>338</v>
+      </c>
+      <c r="J46" t="s">
+        <v>339</v>
+      </c>
+      <c r="K46" t="s">
+        <v>340</v>
+      </c>
+      <c r="L46" t="s">
+        <v>341</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>342</v>
+      </c>
+      <c r="O46" t="s">
+        <v>46</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>343</v>
+      </c>
+      <c r="X46" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>346</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>347</v>
+      </c>
+      <c r="J47" t="s">
+        <v>348</v>
+      </c>
+      <c r="K47" t="s">
+        <v>349</v>
+      </c>
+      <c r="L47" t="s">
+        <v>350</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>351</v>
+      </c>
+      <c r="O47" t="s">
+        <v>34</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>352</v>
+      </c>
+      <c r="X47" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" t="s">
+        <v>355</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s">
+        <v>356</v>
+      </c>
+      <c r="J48" t="s">
+        <v>357</v>
+      </c>
+      <c r="K48" t="s">
+        <v>358</v>
+      </c>
+      <c r="L48" t="s">
+        <v>359</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>351</v>
+      </c>
+      <c r="O48" t="s">
+        <v>120</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>352</v>
+      </c>
+      <c r="X48" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>361</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s">
+        <v>362</v>
+      </c>
+      <c r="J49" t="s">
+        <v>357</v>
+      </c>
+      <c r="K49" t="s">
+        <v>363</v>
+      </c>
+      <c r="L49" t="s">
+        <v>364</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>365</v>
+      </c>
+      <c r="O49" t="s">
+        <v>46</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>352</v>
+      </c>
+      <c r="X49" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>367</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s">
+        <v>368</v>
+      </c>
+      <c r="J50" t="s">
+        <v>369</v>
+      </c>
+      <c r="K50" t="s">
+        <v>370</v>
+      </c>
+      <c r="L50" t="s">
+        <v>371</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>351</v>
+      </c>
+      <c r="O50" t="s">
+        <v>46</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>352</v>
+      </c>
+      <c r="X50" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s">
+        <v>373</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" t="s">
+        <v>374</v>
+      </c>
+      <c r="J51" t="s">
+        <v>375</v>
+      </c>
+      <c r="K51" t="s">
+        <v>376</v>
+      </c>
+      <c r="L51" t="s">
+        <v>377</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>365</v>
+      </c>
+      <c r="O51" t="s">
+        <v>34</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>378</v>
+      </c>
+      <c r="X51" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>381</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" t="s">
+        <v>382</v>
+      </c>
+      <c r="J52" t="s">
+        <v>383</v>
+      </c>
+      <c r="K52" t="s">
+        <v>384</v>
+      </c>
+      <c r="L52" t="s">
+        <v>385</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>365</v>
+      </c>
+      <c r="O52" t="s">
+        <v>177</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>378</v>
+      </c>
+      <c r="X52" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" t="s">
+        <v>387</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" t="s">
+        <v>388</v>
+      </c>
+      <c r="J53" t="s">
+        <v>389</v>
+      </c>
+      <c r="K53" t="s">
+        <v>390</v>
+      </c>
+      <c r="L53" t="s">
+        <v>391</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>392</v>
+      </c>
+      <c r="O53" t="s">
+        <v>34</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>378</v>
+      </c>
+      <c r="X53" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" t="s">
+        <v>394</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" t="s">
+        <v>395</v>
+      </c>
+      <c r="J54" t="s">
+        <v>396</v>
+      </c>
+      <c r="K54" t="s">
+        <v>397</v>
+      </c>
+      <c r="L54" t="s">
+        <v>398</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>399</v>
+      </c>
+      <c r="O54" t="s">
+        <v>34</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>400</v>
+      </c>
+      <c r="X54" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" t="s">
+        <v>403</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" t="s">
+        <v>404</v>
+      </c>
+      <c r="J55" t="s">
+        <v>405</v>
+      </c>
+      <c r="K55" t="s">
+        <v>277</v>
+      </c>
+      <c r="L55" t="s">
+        <v>406</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>407</v>
+      </c>
+      <c r="O55" t="s">
+        <v>120</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>400</v>
+      </c>
+      <c r="X55" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s">
+        <v>409</v>
+      </c>
+      <c r="G56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" t="s">
+        <v>410</v>
+      </c>
+      <c r="J56" t="s">
+        <v>411</v>
+      </c>
+      <c r="K56" t="s">
+        <v>412</v>
+      </c>
+      <c r="L56" t="s">
+        <v>413</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>400</v>
+      </c>
+      <c r="X56" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s">
+        <v>415</v>
+      </c>
+      <c r="G57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" t="s">
+        <v>416</v>
+      </c>
+      <c r="J57" t="s">
+        <v>417</v>
+      </c>
+      <c r="K57" t="s">
+        <v>418</v>
+      </c>
+      <c r="L57" t="s">
+        <v>419</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>399</v>
+      </c>
+      <c r="O57" t="s">
+        <v>46</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>400</v>
+      </c>
+      <c r="X57" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>421</v>
+      </c>
+      <c r="G58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" t="s">
+        <v>422</v>
+      </c>
+      <c r="J58" t="s">
+        <v>423</v>
+      </c>
+      <c r="K58" t="s">
+        <v>424</v>
+      </c>
+      <c r="L58" t="s">
+        <v>425</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>426</v>
+      </c>
+      <c r="O58" t="s">
+        <v>34</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>400</v>
+      </c>
+      <c r="X58" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" t="s">
+        <v>428</v>
+      </c>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" t="s">
+        <v>429</v>
+      </c>
+      <c r="J59" t="s">
+        <v>430</v>
+      </c>
+      <c r="K59" t="s">
+        <v>431</v>
+      </c>
+      <c r="L59" t="s">
+        <v>432</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>433</v>
+      </c>
+      <c r="O59" t="s">
+        <v>120</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>434</v>
+      </c>
+      <c r="X59" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" t="s">
+        <v>437</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s">
+        <v>438</v>
+      </c>
+      <c r="J60" t="s">
+        <v>439</v>
+      </c>
+      <c r="K60" t="s">
+        <v>440</v>
+      </c>
+      <c r="L60" t="s">
+        <v>441</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>442</v>
+      </c>
+      <c r="O60" t="s">
+        <v>120</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>434</v>
+      </c>
+      <c r="X60" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" t="s">
+        <v>444</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" t="s">
+        <v>445</v>
+      </c>
+      <c r="J61" t="s">
+        <v>439</v>
+      </c>
+      <c r="K61" t="s">
+        <v>446</v>
+      </c>
+      <c r="L61" t="s">
+        <v>447</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>442</v>
+      </c>
+      <c r="O61" t="s">
+        <v>34</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>434</v>
+      </c>
+      <c r="X61" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" t="s">
+        <v>449</v>
+      </c>
+      <c r="G62" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" t="s">
+        <v>450</v>
+      </c>
+      <c r="J62" t="s">
+        <v>451</v>
+      </c>
+      <c r="K62" t="s">
+        <v>452</v>
+      </c>
+      <c r="L62" t="s">
+        <v>453</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>454</v>
+      </c>
+      <c r="O62" t="s">
+        <v>96</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>455</v>
+      </c>
+      <c r="X62" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" t="s">
+        <v>458</v>
+      </c>
+      <c r="G63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" t="s">
+        <v>459</v>
+      </c>
+      <c r="J63" t="s">
+        <v>460</v>
+      </c>
+      <c r="K63" t="s">
+        <v>305</v>
+      </c>
+      <c r="L63" t="s">
+        <v>461</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>342</v>
+      </c>
+      <c r="O63" t="s">
+        <v>120</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>462</v>
+      </c>
+      <c r="X63" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" t="s">
+        <v>465</v>
+      </c>
+      <c r="G64" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" t="s">
+        <v>28</v>
+      </c>
+      <c r="I64" t="s">
+        <v>466</v>
+      </c>
+      <c r="J64" t="s">
+        <v>467</v>
+      </c>
+      <c r="K64" t="s">
+        <v>468</v>
+      </c>
+      <c r="L64" t="s">
+        <v>469</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>342</v>
+      </c>
+      <c r="O64" t="s">
+        <v>46</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>462</v>
+      </c>
+      <c r="X64" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" t="s">
+        <v>471</v>
+      </c>
+      <c r="G65" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" t="s">
+        <v>472</v>
+      </c>
+      <c r="J65" t="s">
+        <v>473</v>
+      </c>
+      <c r="K65" t="s">
+        <v>474</v>
+      </c>
+      <c r="L65" t="s">
+        <v>475</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>342</v>
+      </c>
+      <c r="O65" t="s">
+        <v>34</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>476</v>
+      </c>
+      <c r="X65" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" t="s">
+        <v>479</v>
+      </c>
+      <c r="G66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" t="s">
+        <v>480</v>
+      </c>
+      <c r="J66" t="s">
+        <v>473</v>
+      </c>
+      <c r="K66" t="s">
+        <v>481</v>
+      </c>
+      <c r="L66" t="s">
+        <v>482</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>342</v>
+      </c>
+      <c r="O66" t="s">
+        <v>177</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>476</v>
+      </c>
+      <c r="X66" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" t="s">
+        <v>484</v>
+      </c>
+      <c r="G67" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" t="s">
+        <v>485</v>
+      </c>
+      <c r="J67" t="s">
+        <v>486</v>
+      </c>
+      <c r="K67" t="s">
+        <v>487</v>
+      </c>
+      <c r="L67" t="s">
+        <v>488</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>489</v>
+      </c>
+      <c r="O67" t="s">
+        <v>177</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>490</v>
+      </c>
+      <c r="X67" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" t="s">
+        <v>493</v>
+      </c>
+      <c r="G68" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" t="s">
+        <v>494</v>
+      </c>
+      <c r="J68" t="s">
+        <v>495</v>
+      </c>
+      <c r="K68" t="s">
+        <v>496</v>
+      </c>
+      <c r="L68" t="s">
+        <v>497</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>489</v>
+      </c>
+      <c r="O68" t="s">
+        <v>120</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>498</v>
+      </c>
+      <c r="X68" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" t="s">
+        <v>501</v>
+      </c>
+      <c r="G69" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" t="s">
+        <v>502</v>
+      </c>
+      <c r="J69" t="s">
+        <v>503</v>
+      </c>
+      <c r="K69" t="s">
+        <v>504</v>
+      </c>
+      <c r="L69" t="s">
+        <v>505</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>489</v>
+      </c>
+      <c r="O69" t="s">
+        <v>34</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>498</v>
+      </c>
+      <c r="X69" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" t="s">
+        <v>507</v>
+      </c>
+      <c r="G70" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" t="s">
+        <v>508</v>
+      </c>
+      <c r="J70" t="s">
+        <v>509</v>
+      </c>
+      <c r="K70" t="s">
+        <v>510</v>
+      </c>
+      <c r="L70" t="s">
+        <v>511</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>489</v>
+      </c>
+      <c r="O70" t="s">
+        <v>34</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>498</v>
+      </c>
+      <c r="X70" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" t="s">
+        <v>513</v>
+      </c>
+      <c r="G71" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" t="s">
+        <v>514</v>
+      </c>
+      <c r="J71" t="s">
+        <v>515</v>
+      </c>
+      <c r="K71" t="s">
+        <v>516</v>
+      </c>
+      <c r="L71" t="s">
+        <v>517</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>498</v>
+      </c>
+      <c r="X71" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" t="s">
+        <v>519</v>
+      </c>
+      <c r="G72" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" t="s">
+        <v>28</v>
+      </c>
+      <c r="I72" t="s">
+        <v>520</v>
+      </c>
+      <c r="J72" t="s">
+        <v>521</v>
+      </c>
+      <c r="K72" t="s">
+        <v>522</v>
+      </c>
+      <c r="L72" t="s">
+        <v>523</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>524</v>
+      </c>
+      <c r="O72" t="s">
+        <v>46</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>498</v>
+      </c>
+      <c r="X72" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" t="s">
+        <v>526</v>
+      </c>
+      <c r="G73" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73" t="s">
+        <v>527</v>
+      </c>
+      <c r="J73" t="s">
+        <v>528</v>
+      </c>
+      <c r="K73" t="s">
+        <v>529</v>
+      </c>
+      <c r="L73" t="s">
+        <v>530</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>524</v>
+      </c>
+      <c r="O73" t="s">
+        <v>96</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>531</v>
+      </c>
+      <c r="X73" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" t="s">
+        <v>534</v>
+      </c>
+      <c r="G74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" t="s">
+        <v>28</v>
+      </c>
+      <c r="I74" t="s">
+        <v>535</v>
+      </c>
+      <c r="J74" t="s">
+        <v>536</v>
+      </c>
+      <c r="K74" t="s">
+        <v>537</v>
+      </c>
+      <c r="L74" t="s">
+        <v>538</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>524</v>
+      </c>
+      <c r="O74" t="s">
+        <v>34</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>531</v>
+      </c>
+      <c r="X74" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" t="s">
+        <v>540</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" t="s">
+        <v>541</v>
+      </c>
+      <c r="J75" t="s">
+        <v>542</v>
+      </c>
+      <c r="K75" t="s">
+        <v>543</v>
+      </c>
+      <c r="L75" t="s">
+        <v>544</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>524</v>
+      </c>
+      <c r="O75" t="s">
+        <v>46</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>531</v>
+      </c>
+      <c r="X75" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" t="s">
+        <v>546</v>
+      </c>
+      <c r="G76" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" t="s">
+        <v>28</v>
+      </c>
+      <c r="I76" t="s">
+        <v>547</v>
+      </c>
+      <c r="J76" t="s">
+        <v>548</v>
+      </c>
+      <c r="K76" t="s">
+        <v>549</v>
+      </c>
+      <c r="L76" t="s">
+        <v>550</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>551</v>
+      </c>
+      <c r="O76" t="s">
+        <v>34</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>552</v>
+      </c>
+      <c r="X76" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" t="s">
+        <v>555</v>
+      </c>
+      <c r="G77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" t="s">
+        <v>28</v>
+      </c>
+      <c r="I77" t="s">
+        <v>556</v>
+      </c>
+      <c r="J77" t="s">
+        <v>557</v>
+      </c>
+      <c r="K77" t="s">
+        <v>558</v>
+      </c>
+      <c r="L77" t="s">
+        <v>559</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>551</v>
+      </c>
+      <c r="O77" t="s">
+        <v>46</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>560</v>
+      </c>
+      <c r="X77" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" t="s">
+        <v>563</v>
+      </c>
+      <c r="G78" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" t="s">
+        <v>28</v>
+      </c>
+      <c r="I78" t="s">
+        <v>564</v>
+      </c>
+      <c r="J78" t="s">
+        <v>565</v>
+      </c>
+      <c r="K78" t="s">
+        <v>566</v>
+      </c>
+      <c r="L78" t="s">
+        <v>567</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>560</v>
+      </c>
+      <c r="X78" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" t="s">
+        <v>569</v>
+      </c>
+      <c r="G79" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" t="s">
+        <v>28</v>
+      </c>
+      <c r="I79" t="s">
+        <v>570</v>
+      </c>
+      <c r="J79" t="s">
+        <v>571</v>
+      </c>
+      <c r="K79" t="s">
+        <v>572</v>
+      </c>
+      <c r="L79" t="s">
+        <v>573</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>560</v>
+      </c>
+      <c r="X79" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" t="s">
+        <v>575</v>
+      </c>
+      <c r="G80" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" t="s">
+        <v>576</v>
+      </c>
+      <c r="J80" t="s">
+        <v>571</v>
+      </c>
+      <c r="K80" t="s">
+        <v>577</v>
+      </c>
+      <c r="L80" t="s">
+        <v>578</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>560</v>
+      </c>
+      <c r="X80" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" t="s">
+        <v>580</v>
+      </c>
+      <c r="G81" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" t="s">
+        <v>28</v>
+      </c>
+      <c r="I81" t="s">
+        <v>581</v>
+      </c>
+      <c r="J81" t="s">
+        <v>582</v>
+      </c>
+      <c r="K81" t="s">
+        <v>583</v>
+      </c>
+      <c r="L81" t="s">
+        <v>584</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>585</v>
+      </c>
+      <c r="O81" t="s">
+        <v>46</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>560</v>
+      </c>
+      <c r="X81" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" t="s">
+        <v>587</v>
+      </c>
+      <c r="G82" t="s">
+        <v>27</v>
+      </c>
+      <c r="H82" t="s">
+        <v>28</v>
+      </c>
+      <c r="I82" t="s">
+        <v>588</v>
+      </c>
+      <c r="J82" t="s">
+        <v>589</v>
+      </c>
+      <c r="K82" t="s">
+        <v>590</v>
+      </c>
+      <c r="L82" t="s">
+        <v>591</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>585</v>
+      </c>
+      <c r="O82" t="s">
+        <v>46</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>560</v>
+      </c>
+      <c r="X82" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" t="s">
+        <v>593</v>
+      </c>
+      <c r="G83" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" t="s">
+        <v>28</v>
+      </c>
+      <c r="I83" t="s">
+        <v>594</v>
+      </c>
+      <c r="J83" t="s">
+        <v>595</v>
+      </c>
+      <c r="K83" t="s">
+        <v>596</v>
+      </c>
+      <c r="L83" t="s">
+        <v>597</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>598</v>
+      </c>
+      <c r="O83" t="s">
+        <v>46</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>599</v>
+      </c>
+      <c r="X83" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" t="s">
+        <v>602</v>
+      </c>
+      <c r="G84" t="s">
+        <v>27</v>
+      </c>
+      <c r="H84" t="s">
+        <v>28</v>
+      </c>
+      <c r="I84" t="s">
+        <v>603</v>
+      </c>
+      <c r="J84" t="s">
+        <v>604</v>
+      </c>
+      <c r="K84" t="s">
+        <v>605</v>
+      </c>
+      <c r="L84" t="s">
+        <v>606</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>598</v>
+      </c>
+      <c r="O84" t="s">
+        <v>34</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>607</v>
+      </c>
+      <c r="X84" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" t="s">
+        <v>610</v>
+      </c>
+      <c r="G85" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" t="s">
+        <v>611</v>
+      </c>
+      <c r="J85" t="s">
+        <v>612</v>
+      </c>
+      <c r="K85" t="s">
+        <v>613</v>
+      </c>
+      <c r="L85" t="s">
+        <v>614</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>598</v>
+      </c>
+      <c r="O85" t="s">
+        <v>120</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>615</v>
+      </c>
+      <c r="X85" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" t="s">
+        <v>618</v>
+      </c>
+      <c r="G86" t="s">
+        <v>27</v>
+      </c>
+      <c r="H86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I86" t="s">
+        <v>619</v>
+      </c>
+      <c r="J86" t="s">
+        <v>620</v>
+      </c>
+      <c r="K86" t="s">
+        <v>621</v>
+      </c>
+      <c r="L86" t="s">
+        <v>622</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>623</v>
+      </c>
+      <c r="O86" t="s">
+        <v>46</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>624</v>
+      </c>
+      <c r="X86" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" t="s">
+        <v>627</v>
+      </c>
+      <c r="G87" t="s">
+        <v>27</v>
+      </c>
+      <c r="H87" t="s">
+        <v>28</v>
+      </c>
+      <c r="I87" t="s">
+        <v>628</v>
+      </c>
+      <c r="J87" t="s">
+        <v>629</v>
+      </c>
+      <c r="K87" t="s">
+        <v>630</v>
+      </c>
+      <c r="L87" t="s">
+        <v>631</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>632</v>
+      </c>
+      <c r="O87" t="s">
+        <v>34</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>633</v>
+      </c>
+      <c r="X87" t="s">
+        <v>634</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" t="s">
+        <v>636</v>
+      </c>
+      <c r="G88" t="s">
+        <v>27</v>
+      </c>
+      <c r="H88" t="s">
+        <v>28</v>
+      </c>
+      <c r="I88" t="s">
+        <v>637</v>
+      </c>
+      <c r="J88" t="s">
+        <v>638</v>
+      </c>
+      <c r="K88" t="s">
+        <v>639</v>
+      </c>
+      <c r="L88" t="s">
+        <v>640</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>641</v>
+      </c>
+      <c r="O88" t="s">
+        <v>34</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>624</v>
+      </c>
+      <c r="X88" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" t="s">
+        <v>643</v>
+      </c>
+      <c r="G89" t="s">
+        <v>27</v>
+      </c>
+      <c r="H89" t="s">
+        <v>28</v>
+      </c>
+      <c r="I89" t="s">
+        <v>644</v>
+      </c>
+      <c r="J89" t="s">
+        <v>645</v>
+      </c>
+      <c r="K89" t="s">
+        <v>646</v>
+      </c>
+      <c r="L89" t="s">
+        <v>647</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>641</v>
+      </c>
+      <c r="O89" t="s">
+        <v>34</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>624</v>
+      </c>
+      <c r="X89" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" t="s">
+        <v>649</v>
+      </c>
+      <c r="G90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H90" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" t="s">
+        <v>650</v>
+      </c>
+      <c r="J90" t="s">
+        <v>645</v>
+      </c>
+      <c r="K90" t="s">
+        <v>651</v>
+      </c>
+      <c r="L90" t="s">
+        <v>652</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>624</v>
+      </c>
+      <c r="X90" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" t="s">
+        <v>654</v>
+      </c>
+      <c r="G91" t="s">
+        <v>27</v>
+      </c>
+      <c r="H91" t="s">
+        <v>28</v>
+      </c>
+      <c r="I91" t="s">
+        <v>655</v>
+      </c>
+      <c r="J91" t="s">
+        <v>656</v>
+      </c>
+      <c r="K91" t="s">
+        <v>657</v>
+      </c>
+      <c r="L91" t="s">
+        <v>658</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>641</v>
+      </c>
+      <c r="O91" t="s">
+        <v>34</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>624</v>
+      </c>
+      <c r="X91" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" t="s">
+        <v>660</v>
+      </c>
+      <c r="G92" t="s">
+        <v>27</v>
+      </c>
+      <c r="H92" t="s">
+        <v>28</v>
+      </c>
+      <c r="I92" t="s">
+        <v>661</v>
+      </c>
+      <c r="J92" t="s">
+        <v>662</v>
+      </c>
+      <c r="K92" t="s">
+        <v>663</v>
+      </c>
+      <c r="L92" t="s">
+        <v>664</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>665</v>
+      </c>
+      <c r="O92" t="s">
+        <v>34</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>666</v>
+      </c>
+      <c r="X92" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" t="s">
+        <v>668</v>
+      </c>
+      <c r="G93" t="s">
+        <v>27</v>
+      </c>
+      <c r="H93" t="s">
+        <v>28</v>
+      </c>
+      <c r="I93" t="s">
+        <v>669</v>
+      </c>
+      <c r="J93" t="s">
+        <v>670</v>
+      </c>
+      <c r="K93" t="s">
+        <v>671</v>
+      </c>
+      <c r="L93" t="s">
+        <v>672</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>665</v>
+      </c>
+      <c r="O93" t="s">
+        <v>46</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>624</v>
+      </c>
+      <c r="X93" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" t="s">
+        <v>674</v>
+      </c>
+      <c r="G94" t="s">
+        <v>27</v>
+      </c>
+      <c r="H94" t="s">
+        <v>28</v>
+      </c>
+      <c r="I94" t="s">
+        <v>675</v>
+      </c>
+      <c r="J94" t="s">
+        <v>676</v>
+      </c>
+      <c r="K94" t="s">
+        <v>621</v>
+      </c>
+      <c r="L94" t="s">
+        <v>677</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>665</v>
+      </c>
+      <c r="O94" t="s">
+        <v>177</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>624</v>
+      </c>
+      <c r="X94" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" t="s">
+        <v>679</v>
+      </c>
+      <c r="G95" t="s">
+        <v>27</v>
+      </c>
+      <c r="H95" t="s">
+        <v>28</v>
+      </c>
+      <c r="I95" t="s">
+        <v>680</v>
+      </c>
+      <c r="J95" t="s">
+        <v>681</v>
+      </c>
+      <c r="K95" t="s">
+        <v>682</v>
+      </c>
+      <c r="L95" t="s">
+        <v>683</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>684</v>
+      </c>
+      <c r="O95" t="s">
+        <v>46</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>624</v>
+      </c>
+      <c r="X95" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" t="s">
+        <v>686</v>
+      </c>
+      <c r="G96" t="s">
+        <v>27</v>
+      </c>
+      <c r="H96" t="s">
+        <v>28</v>
+      </c>
+      <c r="I96" t="s">
+        <v>687</v>
+      </c>
+      <c r="J96" t="s">
+        <v>688</v>
+      </c>
+      <c r="K96" t="s">
+        <v>689</v>
+      </c>
+      <c r="L96" t="s">
+        <v>690</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="s"/>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>691</v>
+      </c>
+      <c r="X96" t="s">
+        <v>692</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>693</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -583,31 +8594,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>694</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>695</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>696</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>697</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>698</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>699</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>700</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>701</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>702</v>
       </c>
     </row>
     <row r="2">
@@ -615,31 +8626,31 @@
         <v>63400</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>703</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>704</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>705</v>
       </c>
       <c r="E2" t="n">
         <v>70433</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>706</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>663</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>707</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>708</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
